--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\iftikharul makatib\dailycontest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\dailycontest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1878A9C7-17ED-404C-ABC4-56AD4A1ADE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907842D2-F229-45CA-9A28-D66C709E12FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DD21F5A-A335-4CF3-AA7A-5F21F5771062}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">محمّد حنیف بن ملک الافضل صاحب </t>
   </si>
@@ -348,16 +348,46 @@
     <t>html&lt;tag&gt;</t>
   </si>
   <si>
-    <t>hifz</t>
-  </si>
-  <si>
-    <t>nazra/deeniyat</t>
-  </si>
-  <si>
     <t>محمّد عمر بن محمّد اجمل صاحب  (مئو)</t>
   </si>
   <si>
     <t>rollno+name</t>
+  </si>
+  <si>
+    <t>التمش عالم بن شمس عالم صاحب</t>
+  </si>
+  <si>
+    <t>عیان بن غفران اللہ صاحب</t>
+  </si>
+  <si>
+    <t>عبدالحنان بن منظور احمد انصاری صاحب</t>
+  </si>
+  <si>
+    <t>محمد افروزبن محمد عرفان صاحب</t>
+  </si>
+  <si>
+    <t>محمد اسماعیل بن مصطفی احمد صاحب</t>
+  </si>
+  <si>
+    <t>زائنہ خان بنت محمد عرفان صاحب</t>
+  </si>
+  <si>
+    <t>محمد ریان بن نسیم اختر صاحب</t>
+  </si>
+  <si>
+    <t>ریحان بن معراج احمد صاحب</t>
+  </si>
+  <si>
+    <t>نماز والے میں یہ نام بڑھانا ہے</t>
+  </si>
+  <si>
+    <t>Hifz</t>
+  </si>
+  <si>
+    <t>Nazra</t>
+  </si>
+  <si>
+    <t>Deeniyat</t>
   </si>
 </sst>
 </file>
@@ -399,10 +429,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,10 +463,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}" name="Table1" displayName="Table1" ref="B2:E102" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B2:E102" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C97">
-    <sortCondition ref="C2:C97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}" name="Table1" displayName="Table1" ref="B2:E111" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B2:E111" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E111">
+    <sortCondition ref="C2:C111"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{112DB414-D5F1-4ACE-B837-9762DC3CAF4F}" name="roll-no">
@@ -752,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A23E516-3FF1-478F-A7A5-0753CE97A22D}">
-  <dimension ref="B2:K102"/>
+  <dimension ref="B2:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,29 +794,32 @@
     <col min="5" max="5" width="39.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>105</v>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="L2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">IF(C3="","",ROW(A1))</f>
+        <f>IF(C3="","",ROW(A1))</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -802,9 +834,9 @@
         <v>1    احمد حسن بن  ابرار احمد انصاری  صاحب (جھانسی)</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>IF(C4="","",ROW(A2))</f>
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -819,9 +851,9 @@
         <v>2    اسمی بنت رفیع الدین  انصاری صاحب</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>IF(C5="","",ROW(A3))</f>
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -836,1568 +868,1568 @@
         <v>3    اشہر بن الطاف احمد صاحب</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>IF(C6="","",ROW(A4))</f>
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="4  التمش عالم بن شمس عالم صاحب"&gt;4  التمش عالم بن شمس عالم صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>4    التمش عالم بن شمس عالم صاحب</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>IF(C7="","",ROW(A5))</f>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="4  آمنہ بنت حافظ انعام ا  لله صاحب"&gt;4  آمنہ بنت حافظ انعام ا  لله صاحب&lt;/option&gt;</v>
-      </c>
-      <c r="E6" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>4    آمنہ بنت حافظ انعام ا  لله صاحب</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="5  آمنہ بنت حافظ انعام ا  لله صاحب"&gt;5  آمنہ بنت حافظ انعام ا  لله صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>5    آمنہ بنت حافظ انعام ا  لله صاحب</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>IF(C8="","",ROW(A6))</f>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="5  جویریہ بنت حافظ عصمت اللہ صاحب"&gt;5  جویریہ بنت حافظ عصمت اللہ صاحب&lt;/option&gt;</v>
-      </c>
-      <c r="E7" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>5    جویریہ بنت حافظ عصمت اللہ صاحب</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="6  جویریہ بنت حافظ عصمت اللہ صاحب"&gt;6  جویریہ بنت حافظ عصمت اللہ صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>6    جویریہ بنت حافظ عصمت اللہ صاحب</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>IF(C9="","",ROW(A7))</f>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="6  خدیجہ  بنت دلشاد صاحب رح"&gt;6  خدیجہ  بنت دلشاد صاحب رح&lt;/option&gt;</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>6    خدیجہ  بنت دلشاد صاحب رح</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="7  خدیجہ  بنت دلشاد صاحب رح"&gt;7  خدیجہ  بنت دلشاد صاحب رح&lt;/option&gt;</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>7    خدیجہ  بنت دلشاد صاحب رح</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>IF(C10="","",ROW(A8))</f>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="7  ذکری بنت جاوید حسین خان صاحب "&gt;7  ذکری بنت جاوید حسین خان صاحب &lt;/option&gt;</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">7    ذکری بنت جاوید حسین خان صاحب </v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="8  ذکری بنت جاوید حسین خان صاحب "&gt;8  ذکری بنت جاوید حسین خان صاحب &lt;/option&gt;</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v xml:space="preserve">8    ذکری بنت جاوید حسین خان صاحب </v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>IF(C11="","",ROW(A9))</f>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="8  رضا بنت نوشاد صاحب"&gt;8  رضا بنت نوشاد صاحب&lt;/option&gt;</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>8    رضا بنت نوشاد صاحب</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="9  رضا بنت نوشاد صاحب"&gt;9  رضا بنت نوشاد صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>9    رضا بنت نوشاد صاحب</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>IF(C12="","",ROW(A10))</f>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="10  ریحان بن معراج احمد صاحب"&gt;10  ریحان بن معراج احمد صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>10    ریحان بن معراج احمد صاحب</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>IF(C13="","",ROW(A11))</f>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="11  زائنہ خان بنت محمد عرفان صاحب"&gt;11  زائنہ خان بنت محمد عرفان صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E13" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>11    زائنہ خان بنت محمد عرفان صاحب</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>IF(C14="","",ROW(A12))</f>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="9  زینب بنت بدرالزماں صاحب"&gt;9  زینب بنت بدرالزماں صاحب&lt;/option&gt;</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>9    زینب بنت بدرالزماں صاحب</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D14" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="12  زینب بنت بدرالزماں صاحب"&gt;12  زینب بنت بدرالزماں صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>12    زینب بنت بدرالزماں صاحب</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>IF(C15="","",ROW(A13))</f>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="10  زینت خاتون بنت عبد الحسن صاحب"&gt;10  زینت خاتون بنت عبد الحسن صاحب&lt;/option&gt;</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>10    زینت خاتون بنت عبد الحسن صاحب</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D15" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="13  زینت خاتون بنت عبد الحسن صاحب"&gt;13  زینت خاتون بنت عبد الحسن صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E15" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>13    زینت خاتون بنت عبد الحسن صاحب</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>IF(C16="","",ROW(A14))</f>
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="11  شیزان رحمت بن رحمت علی صاحب (بستی)"&gt;11  شیزان رحمت بن رحمت علی صاحب (بستی)&lt;/option&gt;</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>11    شیزان رحمت بن رحمت علی صاحب (بستی)</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="12  صفوان بن رحمت علی  صاحب (بستی)"&gt;12  صفوان بن رحمت علی  صاحب (بستی)&lt;/option&gt;</v>
-      </c>
-      <c r="E14" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>12    صفوان بن رحمت علی  صاحب (بستی)</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="13  عائشہ بنت  محمّد معشوق صاحب"&gt;13  عائشہ بنت  محمّد معشوق صاحب&lt;/option&gt;</v>
-      </c>
-      <c r="E15" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>13    عائشہ بنت  محمّد معشوق صاحب</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="14  عبدالصمد  بن محمّد شفیع صاحب"&gt;14  عبدالصمد  بن محمّد شفیع صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="14  شیزان رحمت بن رحمت علی صاحب (بستی)"&gt;14  شیزان رحمت بن رحمت علی صاحب (بستی)&lt;/option&gt;</v>
       </c>
       <c r="E16" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>14    عبدالصمد  بن محمّد شفیع صاحب</v>
+        <v>14    شیزان رحمت بن رحمت علی صاحب (بستی)</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>IF(C17="","",ROW(A15))</f>
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="15  علیشا بنت دلشاد صاحب رح"&gt;15  علیشا بنت دلشاد صاحب رح&lt;/option&gt;</v>
+        <v>&lt;option value="15  صفوان بن رحمت علی  صاحب (بستی)"&gt;15  صفوان بن رحمت علی  صاحب (بستی)&lt;/option&gt;</v>
       </c>
       <c r="E17" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>15    علیشا بنت دلشاد صاحب رح</v>
+        <v>15    صفوان بن رحمت علی  صاحب (بستی)</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>IF(C18="","",ROW(A16))</f>
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="16  عیاض احمد بن فرحت حسین صاحب"&gt;16  عیاض احمد بن فرحت حسین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="16  عائشہ بنت  محمّد معشوق صاحب"&gt;16  عائشہ بنت  محمّد معشوق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>16    عیاض احمد بن فرحت حسین صاحب</v>
+        <v>16    عائشہ بنت  محمّد معشوق صاحب</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>IF(C19="","",ROW(A17))</f>
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="17  عیاض احمد بن وسیم احمد صاحب"&gt;17  عیاض احمد بن وسیم احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="17  عبدالحنان بن منظور احمد انصاری صاحب"&gt;17  عبدالحنان بن منظور احمد انصاری صاحب&lt;/option&gt;</v>
       </c>
       <c r="E19" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>17    عیاض احمد بن وسیم احمد صاحب</v>
+        <v>17    عبدالحنان بن منظور احمد انصاری صاحب</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>IF(C20="","",ROW(A18))</f>
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="18  فضا بنت قاری صفی اللہ  صاحب"&gt;18  فضا بنت قاری صفی اللہ  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="18  عبدالصمد  بن محمّد شفیع صاحب"&gt;18  عبدالصمد  بن محمّد شفیع صاحب&lt;/option&gt;</v>
       </c>
       <c r="E20" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>18    فضا بنت قاری صفی اللہ  صاحب</v>
+        <v>18    عبدالصمد  بن محمّد شفیع صاحب</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>IF(C21="","",ROW(A19))</f>
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="19  فہد صادق بن عبد الصادق صاحب رح"&gt;19  فہد صادق بن عبد الصادق صاحب رح&lt;/option&gt;</v>
+        <v>&lt;option value="19  علیشا بنت دلشاد صاحب رح"&gt;19  علیشا بنت دلشاد صاحب رح&lt;/option&gt;</v>
       </c>
       <c r="E21" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>19    فہد صادق بن عبد الصادق صاحب رح</v>
+        <v>19    علیشا بنت دلشاد صاحب رح</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>IF(C22="","",ROW(A20))</f>
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="20  محمّد  فہد  بن غیاث صاحب"&gt;20  محمّد  فہد  بن غیاث صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="20  عیاض احمد بن فرحت حسین صاحب"&gt;20  عیاض احمد بن فرحت حسین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E22" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>20    محمّد  فہد  بن غیاث صاحب</v>
+        <v>20    عیاض احمد بن فرحت حسین صاحب</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>IF(C23="","",ROW(A21))</f>
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="21  محمّد  مصطفیٰ بن فرمان حشمت صاحب"&gt;21  محمّد  مصطفیٰ بن فرمان حشمت صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="21  عیاض احمد بن وسیم احمد صاحب"&gt;21  عیاض احمد بن وسیم احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E23" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>21    محمّد  مصطفیٰ بن فرمان حشمت صاحب</v>
+        <v>21    عیاض احمد بن وسیم احمد صاحب</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>IF(C24="","",ROW(A22))</f>
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="22  محمّد ابان بن محمّد عامر صاحب"&gt;22  محمّد ابان بن محمّد عامر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="22  عیان بن غفران اللہ صاحب"&gt;22  عیان بن غفران اللہ صاحب&lt;/option&gt;</v>
       </c>
       <c r="E24" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>22    محمّد ابان بن محمّد عامر صاحب</v>
+        <v>22    عیان بن غفران اللہ صاحب</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>IF(C25="","",ROW(A23))</f>
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="23  محمّد ابراہیم بن محمّد ارشاد  صاحب"&gt;23  محمّد ابراہیم بن محمّد ارشاد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="23  فضا بنت قاری صفی اللہ  صاحب"&gt;23  فضا بنت قاری صفی اللہ  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E25" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>23    محمّد ابراہیم بن محمّد ارشاد  صاحب</v>
+        <v>23    فضا بنت قاری صفی اللہ  صاحب</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>IF(C26="","",ROW(A24))</f>
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="24  محمّد احتشام بن قاری صفی الله صاحب"&gt;24  محمّد احتشام بن قاری صفی الله صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="24  فہد صادق بن عبد الصادق صاحب رح"&gt;24  فہد صادق بن عبد الصادق صاحب رح&lt;/option&gt;</v>
       </c>
       <c r="E26" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>24    محمّد احتشام بن قاری صفی الله صاحب</v>
+        <v>24    فہد صادق بن عبد الصادق صاحب رح</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>IF(C27="","",ROW(A25))</f>
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="25  محمّد اذلان بن علیم عارف صاحب"&gt;25  محمّد اذلان بن علیم عارف صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="25  محمّد  فہد  بن غیاث صاحب"&gt;25  محمّد  فہد  بن غیاث صاحب&lt;/option&gt;</v>
       </c>
       <c r="E27" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>25    محمّد اذلان بن علیم عارف صاحب</v>
+        <v>25    محمّد  فہد  بن غیاث صاحب</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>IF(C28="","",ROW(A26))</f>
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="26  محمّد اذہان بن پرویز احمد صاحب"&gt;26  محمّد اذہان بن پرویز احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="26  محمّد  مصطفیٰ بن فرمان حشمت صاحب"&gt;26  محمّد  مصطفیٰ بن فرمان حشمت صاحب&lt;/option&gt;</v>
       </c>
       <c r="E28" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>26    محمّد اذہان بن پرویز احمد صاحب</v>
+        <v>26    محمّد  مصطفیٰ بن فرمان حشمت صاحب</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>IF(C29="","",ROW(A27))</f>
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="27  محمّد ارحان بن محمّد اختر صاحب"&gt;27  محمّد ارحان بن محمّد اختر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="27  محمّد ابان بن محمّد عامر صاحب"&gt;27  محمّد ابان بن محمّد عامر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E29" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>27    محمّد ارحان بن محمّد اختر صاحب</v>
+        <v>27    محمّد ابان بن محمّد عامر صاحب</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>IF(C30="","",ROW(A28))</f>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="28  محمّد ارحم بن   قمر الہدی صاحب"&gt;28  محمّد ارحم بن   قمر الہدی صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="28  محمّد ابراہیم بن محمّد ارشاد  صاحب"&gt;28  محمّد ابراہیم بن محمّد ارشاد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E30" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>28    محمّد ارحم بن   قمر الہدی صاحب</v>
+        <v>28    محمّد ابراہیم بن محمّد ارشاد  صاحب</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>IF(C31="","",ROW(A29))</f>
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D31" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="29  محمّد ارسلان بن محمّد افضل صاحب"&gt;29  محمّد ارسلان بن محمّد افضل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="29  محمّد احتشام بن قاری صفی الله صاحب"&gt;29  محمّد احتشام بن قاری صفی الله صاحب&lt;/option&gt;</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>29    محمّد ارسلان بن محمّد افضل صاحب</v>
+        <v>29    محمّد احتشام بن قاری صفی الله صاحب</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>IF(C32="","",ROW(A30))</f>
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="30  محمّد ارکان بن محمّد محفوظ صاحب"&gt;30  محمّد ارکان بن محمّد محفوظ صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="30  محمّد اذلان بن علیم عارف صاحب"&gt;30  محمّد اذلان بن علیم عارف صاحب&lt;/option&gt;</v>
       </c>
       <c r="E32" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>30    محمّد ارکان بن محمّد محفوظ صاحب</v>
+        <v>30    محمّد اذلان بن علیم عارف صاحب</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>IF(C33="","",ROW(A31))</f>
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>87</v>
+      <c r="C33" t="s">
+        <v>19</v>
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="31  محمّد الحم بن افروز اختر صاحب"&gt;31  محمّد الحم بن افروز اختر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="31  محمّد اذہان بن پرویز احمد صاحب"&gt;31  محمّد اذہان بن پرویز احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E33" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>31    محمّد الحم بن افروز اختر صاحب</v>
+        <v>31    محمّد اذہان بن پرویز احمد صاحب</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f>IF(C34="","",ROW(A32))</f>
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D34" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="32  محمّد امان بن الطاف احمد صاحب"&gt;32  محمّد امان بن الطاف احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="32  محمّد ارحان بن محمّد اختر صاحب"&gt;32  محمّد ارحان بن محمّد اختر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E34" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>32    محمّد امان بن الطاف احمد صاحب</v>
+        <v>32    محمّد ارحان بن محمّد اختر صاحب</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>IF(C35="","",ROW(A33))</f>
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="D35" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="33  محمّد امان بن بدر الزماں صاحب "&gt;33  محمّد امان بن بدر الزماں صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="33  محمّد ارحم بن   قمر الہدی صاحب"&gt;33  محمّد ارحم بن   قمر الہدی صاحب&lt;/option&gt;</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">33    محمّد امان بن بدر الزماں صاحب </v>
+        <v>33    محمّد ارحم بن   قمر الہدی صاحب</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>IF(C36="","",ROW(A34))</f>
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="34  محمّد امان بن راشد الحق صاحب"&gt;34  محمّد امان بن راشد الحق صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="34  محمّد ارسلان بن محمّد افضل صاحب"&gt;34  محمّد ارسلان بن محمّد افضل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E36" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>34    محمّد امان بن راشد الحق صاحب</v>
+        <v>34    محمّد ارسلان بن محمّد افضل صاحب</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>IF(C37="","",ROW(A35))</f>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="35  محمّد انس بن   محمّد چاند صاحب"&gt;35  محمّد انس بن   محمّد چاند صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="35  محمّد ارکان بن محمّد محفوظ صاحب"&gt;35  محمّد ارکان بن محمّد محفوظ صاحب&lt;/option&gt;</v>
       </c>
       <c r="E37" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>35    محمّد انس بن   محمّد چاند صاحب</v>
+        <v>35    محمّد ارکان بن محمّد محفوظ صاحب</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>IF(C38="","",ROW(A36))</f>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="36  محمّد ایذان بن محمّد عالم صاحب"&gt;36  محمّد ایذان بن محمّد عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="36  محمّد الحم بن افروز اختر صاحب"&gt;36  محمّد الحم بن افروز اختر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E38" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>36    محمّد ایذان بن محمّد عالم صاحب</v>
+        <v>36    محمّد الحم بن افروز اختر صاحب</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>IF(C39="","",ROW(A37))</f>
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D39" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="37  محمّد آشد  بن غیاث  صاحب"&gt;37  محمّد آشد  بن غیاث  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="37  محمّد امان بن الطاف احمد صاحب"&gt;37  محمّد امان بن الطاف احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E39" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>37    محمّد آشد  بن غیاث  صاحب</v>
+        <v>37    محمّد امان بن الطاف احمد صاحب</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>IF(C40="","",ROW(A38))</f>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D40" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="38  محمّد آفرید بن وسیم احمد صاحب "&gt;38  محمّد آفرید بن وسیم احمد صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="38  محمّد امان بن بدر الزماں صاحب "&gt;38  محمّد امان بن بدر الزماں صاحب &lt;/option&gt;</v>
       </c>
       <c r="E40" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">38    محمّد آفرید بن وسیم احمد صاحب </v>
+        <v xml:space="preserve">38    محمّد امان بن بدر الزماں صاحب </v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>IF(C41="","",ROW(A39))</f>
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D41" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="39  محمّد بلال بن انور حسین صاحب"&gt;39  محمّد بلال بن انور حسین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="39  محمّد امان بن راشد الحق صاحب"&gt;39  محمّد امان بن راشد الحق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E41" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>39    محمّد بلال بن انور حسین صاحب</v>
+        <v>39    محمّد امان بن راشد الحق صاحب</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>IF(C42="","",ROW(A40))</f>
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D42" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="40  محمّد تنزیل  بن حسن مطلوب صاحب"&gt;40  محمّد تنزیل  بن حسن مطلوب صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="40  محمّد انس بن   محمّد چاند صاحب"&gt;40  محمّد انس بن   محمّد چاند صاحب&lt;/option&gt;</v>
       </c>
       <c r="E42" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>40    محمّد تنزیل  بن حسن مطلوب صاحب</v>
+        <v>40    محمّد انس بن   محمّد چاند صاحب</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>IF(C43="","",ROW(A41))</f>
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D43" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="41  محمّد تہشیم   بن  ندیم  احمد صاحب"&gt;41  محمّد تہشیم   بن  ندیم  احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="41  محمّد ایذان بن محمّد عالم صاحب"&gt;41  محمّد ایذان بن محمّد عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E43" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>41    محمّد تہشیم   بن  ندیم  احمد صاحب</v>
+        <v>41    محمّد ایذان بن محمّد عالم صاحب</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>IF(C44="","",ROW(A42))</f>
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D44" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="42  محمّد توحیدبن حسن مطلوب صاحب"&gt;42  محمّد توحیدبن حسن مطلوب صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="42  محمّد آشد  بن غیاث  صاحب"&gt;42  محمّد آشد  بن غیاث  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E44" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>42    محمّد توحیدبن حسن مطلوب صاحب</v>
+        <v>42    محمّد آشد  بن غیاث  صاحب</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>IF(C45="","",ROW(A43))</f>
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D45" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="43  محمّد حمّاد بن عدیل  احمد  صاحب"&gt;43  محمّد حمّاد بن عدیل  احمد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="43  محمّد آفرید بن وسیم احمد صاحب "&gt;43  محمّد آفرید بن وسیم احمد صاحب &lt;/option&gt;</v>
       </c>
       <c r="E45" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>43    محمّد حمّاد بن عدیل  احمد  صاحب</v>
+        <v xml:space="preserve">43    محمّد آفرید بن وسیم احمد صاحب </v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>IF(C46="","",ROW(A44))</f>
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
+      <c r="C46" t="s">
+        <v>15</v>
       </c>
       <c r="D46" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="44  محمّد حمزہ   اسرائیل صاحب"&gt;44  محمّد حمزہ   اسرائیل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="44  محمّد بلال بن انور حسین صاحب"&gt;44  محمّد بلال بن انور حسین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E46" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>44    محمّد حمزہ   اسرائیل صاحب</v>
+        <v>44    محمّد بلال بن انور حسین صاحب</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>IF(C47="","",ROW(A45))</f>
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D47" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="45  محمّد حمزہ  بن غلام رسول صاحب "&gt;45  محمّد حمزہ  بن غلام رسول صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="45  محمّد تنزیل  بن حسن مطلوب صاحب"&gt;45  محمّد تنزیل  بن حسن مطلوب صاحب&lt;/option&gt;</v>
       </c>
       <c r="E47" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">45    محمّد حمزہ  بن غلام رسول صاحب </v>
+        <v>45    محمّد تنزیل  بن حسن مطلوب صاحب</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>IF(C48="","",ROW(A46))</f>
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D48" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="46  محمّد حمزہ بن مہتاب عالم صاحب"&gt;46  محمّد حمزہ بن مہتاب عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="46  محمّد تہشیم   بن  ندیم  احمد صاحب"&gt;46  محمّد تہشیم   بن  ندیم  احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E48" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>46    محمّد حمزہ بن مہتاب عالم صاحب</v>
+        <v>46    محمّد تہشیم   بن  ندیم  احمد صاحب</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>IF(C49="","",ROW(A47))</f>
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D49" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="47  محمّد حمید بن شاداب عالم صاحب"&gt;47  محمّد حمید بن شاداب عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="47  محمّد توحیدبن حسن مطلوب صاحب"&gt;47  محمّد توحیدبن حسن مطلوب صاحب&lt;/option&gt;</v>
       </c>
       <c r="E49" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>47    محمّد حمید بن شاداب عالم صاحب</v>
+        <v>47    محمّد توحیدبن حسن مطلوب صاحب</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f>IF(C50="","",ROW(A48))</f>
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D50" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="48  محمّد حنیف بن ملک الافضل صاحب "&gt;48  محمّد حنیف بن ملک الافضل صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="48  محمّد حمّاد بن عدیل  احمد  صاحب"&gt;48  محمّد حمّاد بن عدیل  احمد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E50" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">48    محمّد حنیف بن ملک الافضل صاحب </v>
+        <v>48    محمّد حمّاد بن عدیل  احمد  صاحب</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f>IF(C51="","",ROW(A49))</f>
         <v>49</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D51" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="49  محمّد دارین بن محمّد عامر صاحب"&gt;49  محمّد دارین بن محمّد عامر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="49  محمّد حمزہ   اسرائیل صاحب"&gt;49  محمّد حمزہ   اسرائیل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E51" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>49    محمّد دارین بن محمّد عامر صاحب</v>
+        <v>49    محمّد حمزہ   اسرائیل صاحب</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f>IF(C52="","",ROW(A50))</f>
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D52" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="50  محمّد دانش بن نصیر احمد صاحب"&gt;50  محمّد دانش بن نصیر احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="50  محمّد حمزہ  بن غلام رسول صاحب "&gt;50  محمّد حمزہ  بن غلام رسول صاحب &lt;/option&gt;</v>
       </c>
       <c r="E52" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>50    محمّد دانش بن نصیر احمد صاحب</v>
+        <v xml:space="preserve">50    محمّد حمزہ  بن غلام رسول صاحب </v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f>IF(C53="","",ROW(A51))</f>
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D53" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="51  محمّد داؤد بن خواجہ فرید الدین  صاحب"&gt;51  محمّد داؤد بن خواجہ فرید الدین  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="51  محمّد حمزہ بن مہتاب عالم صاحب"&gt;51  محمّد حمزہ بن مہتاب عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E53" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>51    محمّد داؤد بن خواجہ فرید الدین  صاحب</v>
+        <v>51    محمّد حمزہ بن مہتاب عالم صاحب</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f>IF(C54="","",ROW(A52))</f>
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D54" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="52  محمّد راشد بن رازق حسین خان صاحب"&gt;52  محمّد راشد بن رازق حسین خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="52  محمّد حمید بن شاداب عالم صاحب"&gt;52  محمّد حمید بن شاداب عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E54" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>52    محمّد راشد بن رازق حسین خان صاحب</v>
+        <v>52    محمّد حمید بن شاداب عالم صاحب</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f>IF(C55="","",ROW(A53))</f>
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D55" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="53  محمّد ریحان  بن شمیم عالم صاحب"&gt;53  محمّد ریحان  بن شمیم عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="53  محمّد حنیف بن ملک الافضل صاحب "&gt;53  محمّد حنیف بن ملک الافضل صاحب &lt;/option&gt;</v>
       </c>
       <c r="E55" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>53    محمّد ریحان  بن شمیم عالم صاحب</v>
+        <v xml:space="preserve">53    محمّد حنیف بن ملک الافضل صاحب </v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f>IF(C56="","",ROW(A54))</f>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D56" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="54  محمّد ریحان بن اظہار احمد صاحب"&gt;54  محمّد ریحان بن اظہار احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="54  محمّد دارین بن محمّد عامر صاحب"&gt;54  محمّد دارین بن محمّد عامر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E56" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>54    محمّد ریحان بن اظہار احمد صاحب</v>
+        <v>54    محمّد دارین بن محمّد عامر صاحب</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f>IF(C57="","",ROW(A55))</f>
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D57" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="55  محمّد زیان بن رضوان خان صاحب"&gt;55  محمّد زیان بن رضوان خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="55  محمّد دانش بن نصیر احمد صاحب"&gt;55  محمّد دانش بن نصیر احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E57" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>55    محمّد زیان بن رضوان خان صاحب</v>
+        <v>55    محمّد دانش بن نصیر احمد صاحب</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>IF(C58="","",ROW(A56))</f>
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D58" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="56  محمّد زید بن  افتخار  احمد  صاحب"&gt;56  محمّد زید بن  افتخار  احمد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="56  محمّد داؤد بن خواجہ فرید الدین  صاحب"&gt;56  محمّد داؤد بن خواجہ فرید الدین  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E58" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>56    محمّد زید بن  افتخار  احمد  صاحب</v>
+        <v>56    محمّد داؤد بن خواجہ فرید الدین  صاحب</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>IF(C59="","",ROW(A57))</f>
         <v>57</v>
       </c>
-      <c r="C59" t="s">
-        <v>57</v>
+      <c r="C59" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D59" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="57  محمّد زید بن حافظ فیض الرحمن صاحب"&gt;57  محمّد زید بن حافظ فیض الرحمن صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="57  محمّد ذہیب بن"&gt;57  محمّد ذہیب بن&lt;/option&gt;</v>
       </c>
       <c r="E59" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>57    محمّد زید بن حافظ فیض الرحمن صاحب</v>
+        <v>57    محمّد ذہیب بن</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f>IF(C60="","",ROW(A58))</f>
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D60" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="58  محمّد زید بن ظہیر الدین صاحب"&gt;58  محمّد زید بن ظہیر الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="58  محمّد راشد بن رازق حسین خان صاحب"&gt;58  محمّد راشد بن رازق حسین خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E60" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>58    محمّد زید بن ظہیر الدین صاحب</v>
+        <v>58    محمّد راشد بن رازق حسین خان صاحب</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>IF(C61="","",ROW(A59))</f>
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D61" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="59  محمّد سفیان بن شفقت الله صاحب"&gt;59  محمّد سفیان بن شفقت الله صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="59  محمّد ریاض صاحب (جدّہ)"&gt;59  محمّد ریاض صاحب (جدّہ)&lt;/option&gt;</v>
       </c>
       <c r="E61" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>59    محمّد سفیان بن شفقت الله صاحب</v>
+        <v>59    محمّد ریاض صاحب (جدّہ)</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f>IF(C62="","",ROW(A60))</f>
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D62" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="60  محمّد شادمان  بن محمّد ارشاد صاحب"&gt;60  محمّد شادمان  بن محمّد ارشاد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="60  محمّد ریحان  بن شمیم عالم صاحب"&gt;60  محمّد ریحان  بن شمیم عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E62" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>60    محمّد شادمان  بن محمّد ارشاد صاحب</v>
+        <v>60    محمّد ریحان  بن شمیم عالم صاحب</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>IF(C63="","",ROW(A61))</f>
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D63" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="61  محمّد شمس بن پرویز لاری صاحب"&gt;61  محمّد شمس بن پرویز لاری صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="61  محمّد ریحان بن اظہار احمد صاحب"&gt;61  محمّد ریحان بن اظہار احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E63" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>61    محمّد شمس بن پرویز لاری صاحب</v>
+        <v>61    محمّد ریحان بن اظہار احمد صاحب</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>IF(C64="","",ROW(A62))</f>
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D64" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="62  محمّد صالق بن واثق باللہ صاحب"&gt;62  محمّد صالق بن واثق باللہ صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="62  محمّد زیاں بن محمّد انور صاحب (امریکا)"&gt;62  محمّد زیاں بن محمّد انور صاحب (امریکا)&lt;/option&gt;</v>
       </c>
       <c r="E64" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>62    محمّد صالق بن واثق باللہ صاحب</v>
+        <v>62    محمّد زیاں بن محمّد انور صاحب (امریکا)</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f>IF(C65="","",ROW(A63))</f>
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D65" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="63  محمّد صائم بن محمّد فیصل صاحب"&gt;63  محمّد صائم بن محمّد فیصل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="63  محمّد زیان بن رضوان خان صاحب"&gt;63  محمّد زیان بن رضوان خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E65" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>63    محمّد صائم بن محمّد فیصل صاحب</v>
+        <v>63    محمّد زیان بن رضوان خان صاحب</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f>IF(C66="","",ROW(A64))</f>
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D66" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="64  محمّد صفوان بن محمّد قیصر عالم صاحب"&gt;64  محمّد صفوان بن محمّد قیصر عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="64  محمّد زید بن  افتخار  احمد  صاحب"&gt;64  محمّد زید بن  افتخار  احمد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E66" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>64    محمّد صفوان بن محمّد قیصر عالم صاحب</v>
+        <v>64    محمّد زید بن  افتخار  احمد  صاحب</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67">
-        <f t="shared" ref="B67:B97" si="1">IF(C67="","",ROW(A65))</f>
+        <f>IF(C67="","",ROW(A65))</f>
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D67" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="65  محمّد طیّب  بن مہتاب عالم صاحب"&gt;65  محمّد طیّب  بن مہتاب عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="65  محمّد زید بن حافظ فیض الرحمن صاحب"&gt;65  محمّد زید بن حافظ فیض الرحمن صاحب&lt;/option&gt;</v>
       </c>
       <c r="E67" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>65    محمّد طیّب  بن مہتاب عالم صاحب</v>
+        <v>65    محمّد زید بن حافظ فیض الرحمن صاحب</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f>IF(C68="","",ROW(A66))</f>
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D68" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="66  محمّد عابدبن حافظ عمران صاحب"&gt;66  محمّد عابدبن حافظ عمران صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="66  محمّد زید بن ظہیر الدین صاحب"&gt;66  محمّد زید بن ظہیر الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E68" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>66    محمّد عابدبن حافظ عمران صاحب</v>
+        <v>66    محمّد زید بن ظہیر الدین صاحب</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f>IF(C69="","",ROW(A67))</f>
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D69" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="67  محمّد عارش  بن علیم الدین صاحب"&gt;67  محمّد عارش  بن علیم الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="67  محمّد سفیان بن شفقت الله صاحب"&gt;67  محمّد سفیان بن شفقت الله صاحب&lt;/option&gt;</v>
       </c>
       <c r="E69" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>67    محمّد عارش  بن علیم الدین صاحب</v>
+        <v>67    محمّد سفیان بن شفقت الله صاحب</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f>IF(C70="","",ROW(A68))</f>
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="68  محمّد عاکف بن قمرالہدی صاحب"&gt;68  محمّد عاکف بن قمرالہدی صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="68  محمّد شادمان  بن محمّد ارشاد صاحب"&gt;68  محمّد شادمان  بن محمّد ارشاد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E70" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>68    محمّد عاکف بن قمرالہدی صاحب</v>
+        <v>68    محمّد شادمان  بن محمّد ارشاد صاحب</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f>IF(C71="","",ROW(A69))</f>
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D71" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="69  محمّد عاہل بن محمّد دانش  صاحب"&gt;69  محمّد عاہل بن محمّد دانش  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="69  محمّد شمس بن پرویز لاری صاحب"&gt;69  محمّد شمس بن پرویز لاری صاحب&lt;/option&gt;</v>
       </c>
       <c r="E71" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>69    محمّد عاہل بن محمّد دانش  صاحب</v>
+        <v>69    محمّد شمس بن پرویز لاری صاحب</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f>IF(C72="","",ROW(A70))</f>
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D72" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="70  محمّد عدنان بن محمّد افضل صاحب"&gt;70  محمّد عدنان بن محمّد افضل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="70  محمّد صالق بن واثق باللہ صاحب"&gt;70  محمّد صالق بن واثق باللہ صاحب&lt;/option&gt;</v>
       </c>
       <c r="E72" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>70    محمّد عدنان بن محمّد افضل صاحب</v>
+        <v>70    محمّد صالق بن واثق باللہ صاحب</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f>IF(C73="","",ROW(A71))</f>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="71  محمّد عزیر بن ممتاز احمد صاحب"&gt;71  محمّد عزیر بن ممتاز احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="71  محمّد صائم بن محمّد فیصل صاحب"&gt;71  محمّد صائم بن محمّد فیصل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E73" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>71    محمّد عزیر بن ممتاز احمد صاحب</v>
+        <v>71    محمّد صائم بن محمّد فیصل صاحب</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f>IF(C74="","",ROW(A72))</f>
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="D74" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="72  محمّد علی بن نوید احمد صاحب"&gt;72  محمّد علی بن نوید احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="72  محمّد صفوان بن محمّد قیصر عالم صاحب"&gt;72  محمّد صفوان بن محمّد قیصر عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E74" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>72    محمّد علی بن نوید احمد صاحب</v>
+        <v>72    محمّد صفوان بن محمّد قیصر عالم صاحب</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f>IF(C75="","",ROW(A73))</f>
         <v>73</v>
       </c>
-      <c r="C75" t="s">
-        <v>3</v>
+      <c r="C75" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D75" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="73  محمّد عمر بن عبد الرزاق صاحب"&gt;73  محمّد عمر بن عبد الرزاق صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="73  محمّد طالب بن"&gt;73  محمّد طالب بن&lt;/option&gt;</v>
       </c>
       <c r="E75" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>73    محمّد عمر بن عبد الرزاق صاحب</v>
+        <v>73    محمّد طالب بن</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f>IF(C76="","",ROW(A74))</f>
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D76" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="74  محمّد عمر بن گلریز احمد خان صاحب"&gt;74  محمّد عمر بن گلریز احمد خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="74  محمّد طیّب  بن مہتاب عالم صاحب"&gt;74  محمّد طیّب  بن مہتاب عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E76" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>74    محمّد عمر بن گلریز احمد خان صاحب</v>
+        <v>74    محمّد طیّب  بن مہتاب عالم صاحب</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f>IF(C77="","",ROW(A75))</f>
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D77" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="75  محمّد عمیر بن نذیر الدین صاحب"&gt;75  محمّد عمیر بن نذیر الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="75  محمّد عابدبن حافظ عمران صاحب"&gt;75  محمّد عابدبن حافظ عمران صاحب&lt;/option&gt;</v>
       </c>
       <c r="E77" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>75    محمّد عمیر بن نذیر الدین صاحب</v>
+        <v>75    محمّد عابدبن حافظ عمران صاحب</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f>IF(C78="","",ROW(A76))</f>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D78" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="76  محمّد عیاں بن شفیق صاحب رحمه اللہ"&gt;76  محمّد عیاں بن شفیق صاحب رحمه اللہ&lt;/option&gt;</v>
+        <v>&lt;option value="76  محمّد عارش  بن علیم الدین صاحب"&gt;76  محمّد عارش  بن علیم الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E78" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>76    محمّد عیاں بن شفیق صاحب رحمه اللہ</v>
+        <v>76    محمّد عارش  بن علیم الدین صاحب</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f>IF(C79="","",ROW(A77))</f>
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="77  محمّد عیان بن ظہیر الدین صاحب"&gt;77  محمّد عیان بن ظہیر الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="77  محمّد عاکف بن قمرالہدی صاحب"&gt;77  محمّد عاکف بن قمرالہدی صاحب&lt;/option&gt;</v>
       </c>
       <c r="E79" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>77    محمّد عیان بن ظہیر الدین صاحب</v>
+        <v>77    محمّد عاکف بن قمرالہدی صاحب</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f>IF(C80="","",ROW(A78))</f>
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D80" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="78  محمّد فرحان بن شمیم عالم صاحب"&gt;78  محمّد فرحان بن شمیم عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="78  محمّد عاہل بن محمّد دانش  صاحب"&gt;78  محمّد عاہل بن محمّد دانش  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E80" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>78    محمّد فرحان بن شمیم عالم صاحب</v>
+        <v>78    محمّد عاہل بن محمّد دانش  صاحب</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f>IF(C81="","",ROW(A79))</f>
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D81" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="79  محمّد فردین بن محمّد شاہد صاحب"&gt;79  محمّد فردین بن محمّد شاہد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="79  محمّد عدنان بن محمّد افضل صاحب"&gt;79  محمّد عدنان بن محمّد افضل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E81" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>79    محمّد فردین بن محمّد شاہد صاحب</v>
+        <v>79    محمّد عدنان بن محمّد افضل صاحب</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f>IF(C82="","",ROW(A80))</f>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D82" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="80  محمّد کیفی بن محمّد نواز شیروانی صاحب"&gt;80  محمّد کیفی بن محمّد نواز شیروانی صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="80  محمّد عزیر بن ممتاز احمد صاحب"&gt;80  محمّد عزیر بن ممتاز احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E82" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>80    محمّد کیفی بن محمّد نواز شیروانی صاحب</v>
+        <v>80    محمّد عزیر بن ممتاز احمد صاحب</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f>IF(C83="","",ROW(A81))</f>
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D83" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="81  محمّد محتشم بن محمّد عامر صاحب"&gt;81  محمّد محتشم بن محمّد عامر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="81  محمّد علی بن نوید احمد صاحب"&gt;81  محمّد علی بن نوید احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E83" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>81    محمّد محتشم بن محمّد عامر صاحب</v>
+        <v>81    محمّد علی بن نوید احمد صاحب</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f>IF(C84="","",ROW(A82))</f>
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D84" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="82  محمّد مدّثر بن شکیل احمد  صاحب"&gt;82  محمّد مدّثر بن شکیل احمد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="82  محمّد عمر بن عبد الرزاق صاحب"&gt;82  محمّد عمر بن عبد الرزاق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E84" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>82    محمّد مدّثر بن شکیل احمد  صاحب</v>
+        <v>82    محمّد عمر بن عبد الرزاق صاحب</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f>IF(C85="","",ROW(A83))</f>
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D85" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="83  محمّد مزمل بن شکیل احمد صاحب"&gt;83  محمّد مزمل بن شکیل احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="83  محمّد عمر بن گلریز احمد خان صاحب"&gt;83  محمّد عمر بن گلریز احمد خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E85" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>83    محمّد مزمل بن شکیل احمد صاحب</v>
+        <v>83    محمّد عمر بن گلریز احمد خان صاحب</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f>IF(C86="","",ROW(A84))</f>
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D86" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="84  محمّد معروف بن  محمّد معشوق صاحب"&gt;84  محمّد معروف بن  محمّد معشوق صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="84  محمّد عمر بن محمّد اجمل صاحب  (مئو)"&gt;84  محمّد عمر بن محمّد اجمل صاحب  (مئو)&lt;/option&gt;</v>
       </c>
       <c r="E86" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>84    محمّد معروف بن  محمّد معشوق صاحب</v>
+        <v>84    محمّد عمر بن محمّد اجمل صاحب  (مئو)</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f>IF(C87="","",ROW(A85))</f>
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D87" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="85  محمّد ہادی بن ملک العزیز صاحب"&gt;85  محمّد ہادی بن ملک العزیز صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="85  محمّد عمیر بن نذیر الدین صاحب"&gt;85  محمّد عمیر بن نذیر الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E87" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>85    محمّد ہادی بن ملک العزیز صاحب</v>
+        <v>85    محمّد عمیر بن نذیر الدین صاحب</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f>IF(C88="","",ROW(A86))</f>
         <v>86</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>2</v>
+      <c r="C88" t="s">
+        <v>72</v>
       </c>
       <c r="D88" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="86  محمّد ھود "&gt;86  محمّد ھود &lt;/option&gt;</v>
+        <v>&lt;option value="86  محمّد عیاں بن شفیق صاحب رحمه اللہ"&gt;86  محمّد عیاں بن شفیق صاحب رحمه اللہ&lt;/option&gt;</v>
       </c>
       <c r="E88" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">86    محمّد ھود </v>
+        <v>86    محمّد عیاں بن شفیق صاحب رحمه اللہ</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f>IF(C89="","",ROW(A87))</f>
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D89" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="87  محمّد یوسف بن ذرار صاحب"&gt;87  محمّد یوسف بن ذرار صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="87  محمّد عیان بن ظہیر الدین صاحب"&gt;87  محمّد عیان بن ظہیر الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E89" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>87    محمّد یوسف بن ذرار صاحب</v>
+        <v>87    محمّد عیان بن ظہیر الدین صاحب</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f>IF(C90="","",ROW(A88))</f>
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D90" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="88  محمّد یوسف بن محمّد بلال صاحب "&gt;88  محمّد یوسف بن محمّد بلال صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="88  محمّد فرحان بن شمیم عالم صاحب"&gt;88  محمّد فرحان بن شمیم عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E90" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">88    محمّد یوسف بن محمّد بلال صاحب </v>
+        <v>88    محمّد فرحان بن شمیم عالم صاحب</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f>IF(C91="","",ROW(A89))</f>
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="D91" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="89  محمّداحتشام بن نعیم خان صاحب"&gt;89  محمّداحتشام بن نعیم خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="89  محمّد فردین بن محمّد شاہد صاحب"&gt;89  محمّد فردین بن محمّد شاہد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E91" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>89    محمّداحتشام بن نعیم خان صاحب</v>
+        <v>89    محمّد فردین بن محمّد شاہد صاحب</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f>IF(C92="","",ROW(A90))</f>
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D92" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="90  محمّدشدیب  بن محمّد عالم صاحب"&gt;90  محمّدشدیب  بن محمّد عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="90  محمّد کیفی بن محمّد نواز شیروانی صاحب"&gt;90  محمّد کیفی بن محمّد نواز شیروانی صاحب&lt;/option&gt;</v>
       </c>
       <c r="E92" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>90    محمّدشدیب  بن محمّد عالم صاحب</v>
+        <v>90    محمّد کیفی بن محمّد نواز شیروانی صاحب</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f>IF(C93="","",ROW(A91))</f>
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D93" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="91  محمّدعرش  بن عبد الرحیم صاحب "&gt;91  محمّدعرش  بن عبد الرحیم صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="91  محمّد محتشم بن محمّد عامر صاحب"&gt;91  محمّد محتشم بن محمّد عامر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E93" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">91    محمّدعرش  بن عبد الرحیم صاحب </v>
+        <v>91    محمّد محتشم بن محمّد عامر صاحب</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f>IF(C94="","",ROW(A92))</f>
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D94" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="92  معاذ حبیب بن حبیب الله صاحب"&gt;92  معاذ حبیب بن حبیب الله صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="92  محمّد مدّثر بن شکیل احمد  صاحب"&gt;92  محمّد مدّثر بن شکیل احمد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E94" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>92    معاذ حبیب بن حبیب الله صاحب</v>
+        <v>92    محمّد مدّثر بن شکیل احمد  صاحب</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f>IF(C95="","",ROW(A93))</f>
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D95" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="93  معاذ رحمن بن معین الرحمن صاحب"&gt;93  معاذ رحمن بن معین الرحمن صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="93  محمّد مزمل بن شکیل احمد صاحب"&gt;93  محمّد مزمل بن شکیل احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E95" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>93    معاذ رحمن بن معین الرحمن صاحب</v>
+        <v>93    محمّد مزمل بن شکیل احمد صاحب</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f>IF(C96="","",ROW(A94))</f>
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D96" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="94  وصی احمد بن رئیس احمد صاحب"&gt;94  وصی احمد بن رئیس احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="94  محمّد معروف بن  محمّد معشوق صاحب"&gt;94  محمّد معروف بن  محمّد معشوق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E96" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>94    وصی احمد بن رئیس احمد صاحب</v>
+        <v>94    محمّد معروف بن  محمّد معشوق صاحب</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f>IF(C97="","",ROW(A95))</f>
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D97" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="95  یٰسین کاظمی بن قطب الدین  کاظمی صاحب"&gt;95  یٰسین کاظمی بن قطب الدین  کاظمی صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="95  محمّد ہادی بن ملک العزیز صاحب"&gt;95  محمّد ہادی بن ملک العزیز صاحب&lt;/option&gt;</v>
       </c>
       <c r="E97" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>95    یٰسین کاظمی بن قطب الدین  کاظمی صاحب</v>
+        <v>95    محمّد ہادی بن ملک العزیز صاحب</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
@@ -2406,15 +2438,15 @@
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D98" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="96  محمّد طالب بن"&gt;96  محمّد طالب بن&lt;/option&gt;</v>
+        <v>&lt;option value="96  محمّد ھود "&gt;96  محمّد ھود &lt;/option&gt;</v>
       </c>
       <c r="E98" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>96    محمّد طالب بن</v>
+        <v xml:space="preserve">96    محمّد ھود </v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
@@ -2422,16 +2454,16 @@
         <f>IF(C99="","",ROW(A97))</f>
         <v>97</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>97</v>
+      <c r="C99" t="s">
+        <v>68</v>
       </c>
       <c r="D99" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="97  محمّد ذہیب بن"&gt;97  محمّد ذہیب بن&lt;/option&gt;</v>
+        <v>&lt;option value="97  محمّد یوسف بن ذرار صاحب"&gt;97  محمّد یوسف بن ذرار صاحب&lt;/option&gt;</v>
       </c>
       <c r="E99" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>97    محمّد ذہیب بن</v>
+        <v>97    محمّد یوسف بن ذرار صاحب</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
@@ -2439,16 +2471,16 @@
         <f>IF(C100="","",ROW(A98))</f>
         <v>98</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>104</v>
+      <c r="C100" t="s">
+        <v>50</v>
       </c>
       <c r="D100" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="98  محمّد عمر بن محمّد اجمل صاحب  (مئو)"&gt;98  محمّد عمر بن محمّد اجمل صاحب  (مئو)&lt;/option&gt;</v>
+        <v>&lt;option value="98  محمّد یوسف بن محمّد بلال صاحب "&gt;98  محمّد یوسف بن محمّد بلال صاحب &lt;/option&gt;</v>
       </c>
       <c r="E100" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>98    محمّد عمر بن محمّد اجمل صاحب  (مئو)</v>
+        <v xml:space="preserve">98    محمّد یوسف بن محمّد بلال صاحب </v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
@@ -2457,15 +2489,15 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D101" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="99  محمّد زیاں بن محمّد انور صاحب (امریکا)"&gt;99  محمّد زیاں بن محمّد انور صاحب (امریکا)&lt;/option&gt;</v>
+        <v>&lt;option value="99  محمّداحتشام بن نعیم خان صاحب"&gt;99  محمّداحتشام بن نعیم خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E101" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>99    محمّد زیاں بن محمّد انور صاحب (امریکا)</v>
+        <v>99    محمّداحتشام بن نعیم خان صاحب</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
@@ -2474,15 +2506,168 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D102" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="100  محمّد ریاض صاحب (جدّہ)"&gt;100  محمّد ریاض صاحب (جدّہ)&lt;/option&gt;</v>
+        <v>&lt;option value="100  محمّدشدیب  بن محمّد عالم صاحب"&gt;100  محمّدشدیب  بن محمّد عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E102" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>100    محمّد ریاض صاحب (جدّہ)</v>
+        <v>100    محمّدشدیب  بن محمّد عالم صاحب</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <f>IF(C103="","",ROW(A101))</f>
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="101  محمّدعرش  بن عبد الرحیم صاحب "&gt;101  محمّدعرش  بن عبد الرحیم صاحب &lt;/option&gt;</v>
+      </c>
+      <c r="E103" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v xml:space="preserve">101    محمّدعرش  بن عبد الرحیم صاحب </v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <f>IF(C104="","",ROW(A102))</f>
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="102  محمد اسماعیل بن مصطفی احمد صاحب"&gt;102  محمد اسماعیل بن مصطفی احمد صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E104" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>102    محمد اسماعیل بن مصطفی احمد صاحب</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <f>IF(C105="","",ROW(A103))</f>
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="103  محمد افروزبن محمد عرفان صاحب"&gt;103  محمد افروزبن محمد عرفان صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E105" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>103    محمد افروزبن محمد عرفان صاحب</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <f>IF(C106="","",ROW(A104))</f>
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="104  محمد ریان بن نسیم اختر صاحب"&gt;104  محمد ریان بن نسیم اختر صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E106" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>104    محمد ریان بن نسیم اختر صاحب</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <f>IF(C107="","",ROW(A105))</f>
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="105  معاذ حبیب بن حبیب الله صاحب"&gt;105  معاذ حبیب بن حبیب الله صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E107" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>105    معاذ حبیب بن حبیب الله صاحب</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <f>IF(C108="","",ROW(A106))</f>
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="106  معاذ رحمن بن معین الرحمن صاحب"&gt;106  معاذ رحمن بن معین الرحمن صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E108" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>106    معاذ رحمن بن معین الرحمن صاحب</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <f>IF(C109="","",ROW(A107))</f>
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="107  نماز والے میں یہ نام بڑھانا ہے"&gt;107  نماز والے میں یہ نام بڑھانا ہے&lt;/option&gt;</v>
+      </c>
+      <c r="E109" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>107    نماز والے میں یہ نام بڑھانا ہے</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <f>IF(C110="","",ROW(A108))</f>
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="108  وصی احمد بن رئیس احمد صاحب"&gt;108  وصی احمد بن رئیس احمد صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E110" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>108    وصی احمد بن رئیس احمد صاحب</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <f>IF(C111="","",ROW(A109))</f>
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="109  یٰسین کاظمی بن قطب الدین  کاظمی صاحب"&gt;109  یٰسین کاظمی بن قطب الدین  کاظمی صاحب&lt;/option&gt;</v>
+      </c>
+      <c r="E111" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>109    یٰسین کاظمی بن قطب الدین  کاظمی صاحب</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\dailycontest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907842D2-F229-45CA-9A28-D66C709E12FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85BFB8E-DEFD-4EAC-8F9E-70975086050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DD21F5A-A335-4CF3-AA7A-5F21F5771062}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">محمّد حنیف بن ملک الافضل صاحب </t>
   </si>
@@ -378,9 +378,6 @@
     <t>ریحان بن معراج احمد صاحب</t>
   </si>
   <si>
-    <t>نماز والے میں یہ نام بڑھانا ہے</t>
-  </si>
-  <si>
     <t>Hifz</t>
   </si>
   <si>
@@ -388,6 +385,15 @@
   </si>
   <si>
     <t>Deeniyat</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>محمّد زکریا (RPF)</t>
   </si>
 </sst>
 </file>
@@ -429,12 +435,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,12 +470,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}" name="Table1" displayName="Table1" ref="B2:E111" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B2:E111" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E111">
-    <sortCondition ref="C2:C111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}" name="Table1" displayName="Table1" ref="B2:F111" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B2:F111" xr:uid="{0720B3ED-E398-46AF-B2A4-A7DE79BC1F81}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F111">
+    <sortCondition ref="F2:F111"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{112DB414-D5F1-4ACE-B837-9762DC3CAF4F}" name="roll-no">
       <calculatedColumnFormula>IF(C3="","",ROW(A1))</calculatedColumnFormula>
     </tableColumn>
@@ -479,6 +486,7 @@
     <tableColumn id="4" xr3:uid="{49854B69-60EA-4814-BECA-6F756282E744}" name="rollno+name" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="5" xr3:uid="{303F3ED1-3A3B-48D2-9104-5B2BE207A0D9}" name="Filter"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -781,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A23E516-3FF1-478F-A7A5-0753CE97A22D}">
-  <dimension ref="B2:L111"/>
+  <dimension ref="A2:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,14 +815,17 @@
       <c r="E2" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" t="s">
         <v>113</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>114</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -823,15 +834,18 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="1  احمد حسن بن  ابرار احمد انصاری  صاحب (جھانسی)"&gt;1  احمد حسن بن  ابرار احمد انصاری  صاحب (جھانسی)&lt;/option&gt;</v>
+        <v>&lt;option value="1  عبدالحنان بن منظور احمد انصاری صاحب"&gt;1  عبدالحنان بن منظور احمد انصاری صاحب&lt;/option&gt;</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>1    احمد حسن بن  ابرار احمد انصاری  صاحب (جھانسی)</v>
+        <v>1    عبدالحنان بن منظور احمد انصاری صاحب</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -840,15 +854,18 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="2  اسمی بنت رفیع الدین  انصاری صاحب"&gt;2  اسمی بنت رفیع الدین  انصاری صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="2  محمّد  مصطفیٰ بن فرمان حشمت صاحب"&gt;2  محمّد  مصطفیٰ بن فرمان حشمت صاحب&lt;/option&gt;</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>2    اسمی بنت رفیع الدین  انصاری صاحب</v>
+        <v>2    محمّد  مصطفیٰ بن فرمان حشمت صاحب</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -857,15 +874,18 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="3  اشہر بن الطاف احمد صاحب"&gt;3  اشہر بن الطاف احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="3  محمّد دانش بن نصیر احمد صاحب"&gt;3  محمّد دانش بن نصیر احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>3    اشہر بن الطاف احمد صاحب</v>
+        <v>3    محمّد دانش بن نصیر احمد صاحب</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -874,15 +894,18 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="4  التمش عالم بن شمس عالم صاحب"&gt;4  التمش عالم بن شمس عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="4  محمّد زید بن  افتخار  احمد  صاحب"&gt;4  محمّد زید بن  افتخار  احمد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>4    التمش عالم بن شمس عالم صاحب</v>
+        <v>4    محمّد زید بن  افتخار  احمد  صاحب</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -891,15 +914,18 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="5  آمنہ بنت حافظ انعام ا  لله صاحب"&gt;5  آمنہ بنت حافظ انعام ا  لله صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="5  محمّد زید بن ظہیر الدین صاحب"&gt;5  محمّد زید بن ظہیر الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>5    آمنہ بنت حافظ انعام ا  لله صاحب</v>
+        <v>5    محمّد زید بن ظہیر الدین صاحب</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -908,15 +934,18 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="6  جویریہ بنت حافظ عصمت اللہ صاحب"&gt;6  جویریہ بنت حافظ عصمت اللہ صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="6  محمّد طیّب  بن مہتاب عالم صاحب"&gt;6  محمّد طیّب  بن مہتاب عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E8" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>6    جویریہ بنت حافظ عصمت اللہ صاحب</v>
+        <v>6    محمّد طیّب  بن مہتاب عالم صاحب</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -925,15 +954,18 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="7  خدیجہ  بنت دلشاد صاحب رح"&gt;7  خدیجہ  بنت دلشاد صاحب رح&lt;/option&gt;</v>
+        <v>&lt;option value="7  محمّد عمیر بن نذیر الدین صاحب"&gt;7  محمّد عمیر بن نذیر الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>7    خدیجہ  بنت دلشاد صاحب رح</v>
+        <v>7    محمّد عمیر بن نذیر الدین صاحب</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -942,15 +974,18 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="8  ذکری بنت جاوید حسین خان صاحب "&gt;8  ذکری بنت جاوید حسین خان صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="8  محمّد عیاں بن شفیق صاحب رحمه اللہ"&gt;8  محمّد عیاں بن شفیق صاحب رحمه اللہ&lt;/option&gt;</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">8    ذکری بنت جاوید حسین خان صاحب </v>
+        <v>8    محمّد عیاں بن شفیق صاحب رحمه اللہ</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -959,15 +994,18 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="9  رضا بنت نوشاد صاحب"&gt;9  رضا بنت نوشاد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="9  محمّد معروف بن  محمّد معشوق صاحب"&gt;9  محمّد معروف بن  محمّد معشوق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>9    رضا بنت نوشاد صاحب</v>
+        <v>9    محمّد معروف بن  محمّد معشوق صاحب</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -976,15 +1014,18 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="10  ریحان بن معراج احمد صاحب"&gt;10  ریحان بن معراج احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="10  محمّد یوسف بن ذرار صاحب"&gt;10  محمّد یوسف بن ذرار صاحب&lt;/option&gt;</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>10    ریحان بن معراج احمد صاحب</v>
+        <v>10    محمّد یوسف بن ذرار صاحب</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -993,15 +1034,18 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="11  زائنہ خان بنت محمد عرفان صاحب"&gt;11  زائنہ خان بنت محمد عرفان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="11  معاذ حبیب بن حبیب الله صاحب"&gt;11  معاذ حبیب بن حبیب الله صاحب&lt;/option&gt;</v>
       </c>
       <c r="E13" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>11    زائنہ خان بنت محمد عرفان صاحب</v>
+        <v>11    معاذ حبیب بن حبیب الله صاحب</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1010,15 +1054,18 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="12  زینب بنت بدرالزماں صاحب"&gt;12  زینب بنت بدرالزماں صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="12  یٰسین کاظمی بن قطب الدین  کاظمی صاحب"&gt;12  یٰسین کاظمی بن قطب الدین  کاظمی صاحب&lt;/option&gt;</v>
       </c>
       <c r="E14" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>12    زینب بنت بدرالزماں صاحب</v>
+        <v>12    یٰسین کاظمی بن قطب الدین  کاظمی صاحب</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -1027,15 +1074,18 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="13  زینت خاتون بنت عبد الحسن صاحب"&gt;13  زینت خاتون بنت عبد الحسن صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="13  محمّد آفرید بن وسیم احمد صاحب "&gt;13  محمّد آفرید بن وسیم احمد صاحب &lt;/option&gt;</v>
       </c>
       <c r="E15" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>13    زینت خاتون بنت عبد الحسن صاحب</v>
+        <v xml:space="preserve">13    محمّد آفرید بن وسیم احمد صاحب </v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -1044,1599 +1094,1881 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="14  شیزان رحمت بن رحمت علی صاحب (بستی)"&gt;14  شیزان رحمت بن رحمت علی صاحب (بستی)&lt;/option&gt;</v>
+        <v>&lt;option value="14  محمّد ریحان بن اظہار احمد صاحب"&gt;14  محمّد ریحان بن اظہار احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E16" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>14    شیزان رحمت بن رحمت علی صاحب (بستی)</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>14    محمّد ریحان بن اظہار احمد صاحب</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>IF(C17="","",ROW(A15))</f>
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="15  صفوان بن رحمت علی  صاحب (بستی)"&gt;15  صفوان بن رحمت علی  صاحب (بستی)&lt;/option&gt;</v>
+        <v>&lt;option value="15  محمّد زید بن حافظ فیض الرحمن صاحب"&gt;15  محمّد زید بن حافظ فیض الرحمن صاحب&lt;/option&gt;</v>
       </c>
       <c r="E17" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>15    صفوان بن رحمت علی  صاحب (بستی)</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>15    محمّد زید بن حافظ فیض الرحمن صاحب</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <f>IF(C18="","",ROW(A16))</f>
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="16  عائشہ بنت  محمّد معشوق صاحب"&gt;16  عائشہ بنت  محمّد معشوق صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="16  محمّد عابدبن حافظ عمران صاحب"&gt;16  محمّد عابدبن حافظ عمران صاحب&lt;/option&gt;</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>16    عائشہ بنت  محمّد معشوق صاحب</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>16    محمّد عابدبن حافظ عمران صاحب</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <f>IF(C19="","",ROW(A17))</f>
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="17  عبدالحنان بن منظور احمد انصاری صاحب"&gt;17  عبدالحنان بن منظور احمد انصاری صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="17  محمّد علی بن نوید احمد صاحب"&gt;17  محمّد علی بن نوید احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E19" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>17    عبدالحنان بن منظور احمد انصاری صاحب</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>17    محمّد علی بن نوید احمد صاحب</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <f>IF(C20="","",ROW(A18))</f>
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="18  عبدالصمد  بن محمّد شفیع صاحب"&gt;18  عبدالصمد  بن محمّد شفیع صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="18  محمّد فرحان بن شمیم عالم صاحب"&gt;18  محمّد فرحان بن شمیم عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E20" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>18    عبدالصمد  بن محمّد شفیع صاحب</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>18    محمّد فرحان بن شمیم عالم صاحب</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>IF(C21="","",ROW(A19))</f>
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="19  علیشا بنت دلشاد صاحب رح"&gt;19  علیشا بنت دلشاد صاحب رح&lt;/option&gt;</v>
+        <v>&lt;option value="19  احمد حسن بن  ابرار احمد انصاری  صاحب (جھانسی)"&gt;19  احمد حسن بن  ابرار احمد انصاری  صاحب (جھانسی)&lt;/option&gt;</v>
       </c>
       <c r="E21" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>19    علیشا بنت دلشاد صاحب رح</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>19    احمد حسن بن  ابرار احمد انصاری  صاحب (جھانسی)</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>IF(C22="","",ROW(A20))</f>
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="20  عیاض احمد بن فرحت حسین صاحب"&gt;20  عیاض احمد بن فرحت حسین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="20  اسمی بنت رفیع الدین  انصاری صاحب"&gt;20  اسمی بنت رفیع الدین  انصاری صاحب&lt;/option&gt;</v>
       </c>
       <c r="E22" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>20    عیاض احمد بن فرحت حسین صاحب</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20    اسمی بنت رفیع الدین  انصاری صاحب</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>IF(C23="","",ROW(A21))</f>
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="21  عیاض احمد بن وسیم احمد صاحب"&gt;21  عیاض احمد بن وسیم احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="21  اشہر بن الطاف احمد صاحب"&gt;21  اشہر بن الطاف احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E23" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>21    عیاض احمد بن وسیم احمد صاحب</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>21    اشہر بن الطاف احمد صاحب</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <f>IF(C24="","",ROW(A22))</f>
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="22  عیان بن غفران اللہ صاحب"&gt;22  عیان بن غفران اللہ صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="22  التمش عالم بن شمس عالم صاحب"&gt;22  التمش عالم بن شمس عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E24" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>22    عیان بن غفران اللہ صاحب</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22    التمش عالم بن شمس عالم صاحب</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>IF(C25="","",ROW(A23))</f>
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="23  فضا بنت قاری صفی اللہ  صاحب"&gt;23  فضا بنت قاری صفی اللہ  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="23  آمنہ بنت حافظ انعام ا  لله صاحب"&gt;23  آمنہ بنت حافظ انعام ا  لله صاحب&lt;/option&gt;</v>
       </c>
       <c r="E25" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>23    فضا بنت قاری صفی اللہ  صاحب</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>23    آمنہ بنت حافظ انعام ا  لله صاحب</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <f>IF(C26="","",ROW(A24))</f>
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="24  فہد صادق بن عبد الصادق صاحب رح"&gt;24  فہد صادق بن عبد الصادق صاحب رح&lt;/option&gt;</v>
+        <v>&lt;option value="24  جویریہ بنت حافظ عصمت اللہ صاحب"&gt;24  جویریہ بنت حافظ عصمت اللہ صاحب&lt;/option&gt;</v>
       </c>
       <c r="E26" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>24    فہد صادق بن عبد الصادق صاحب رح</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <v>24    جویریہ بنت حافظ عصمت اللہ صاحب</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <f>IF(C27="","",ROW(A25))</f>
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="25  محمّد  فہد  بن غیاث صاحب"&gt;25  محمّد  فہد  بن غیاث صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="25  خدیجہ  بنت دلشاد صاحب رح"&gt;25  خدیجہ  بنت دلشاد صاحب رح&lt;/option&gt;</v>
       </c>
       <c r="E27" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>25    محمّد  فہد  بن غیاث صاحب</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+        <v>25    خدیجہ  بنت دلشاد صاحب رح</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
         <f>IF(C28="","",ROW(A26))</f>
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="26  محمّد  مصطفیٰ بن فرمان حشمت صاحب"&gt;26  محمّد  مصطفیٰ بن فرمان حشمت صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="26  ذکری بنت جاوید حسین خان صاحب "&gt;26  ذکری بنت جاوید حسین خان صاحب &lt;/option&gt;</v>
       </c>
       <c r="E28" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>26    محمّد  مصطفیٰ بن فرمان حشمت صاحب</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">26    ذکری بنت جاوید حسین خان صاحب </v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>IF(C29="","",ROW(A27))</f>
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="27  محمّد ابان بن محمّد عامر صاحب"&gt;27  محمّد ابان بن محمّد عامر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="27  رضا بنت نوشاد صاحب"&gt;27  رضا بنت نوشاد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E29" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>27    محمّد ابان بن محمّد عامر صاحب</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+        <v>27    رضا بنت نوشاد صاحب</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30">
         <f>IF(C30="","",ROW(A28))</f>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="28  محمّد ابراہیم بن محمّد ارشاد  صاحب"&gt;28  محمّد ابراہیم بن محمّد ارشاد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="28  ریحان بن معراج احمد صاحب"&gt;28  ریحان بن معراج احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E30" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>28    محمّد ابراہیم بن محمّد ارشاد  صاحب</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+        <v>28    ریحان بن معراج احمد صاحب</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>IF(C31="","",ROW(A29))</f>
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D31" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="29  محمّد احتشام بن قاری صفی الله صاحب"&gt;29  محمّد احتشام بن قاری صفی الله صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="29  زائنہ خان بنت محمد عرفان صاحب"&gt;29  زائنہ خان بنت محمد عرفان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>29    محمّد احتشام بن قاری صفی الله صاحب</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+        <v>29    زائنہ خان بنت محمد عرفان صاحب</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <f>IF(C32="","",ROW(A30))</f>
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="30  محمّد اذلان بن علیم عارف صاحب"&gt;30  محمّد اذلان بن علیم عارف صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="30  زینب بنت بدرالزماں صاحب"&gt;30  زینب بنت بدرالزماں صاحب&lt;/option&gt;</v>
       </c>
       <c r="E32" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>30    محمّد اذلان بن علیم عارف صاحب</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+        <v>30    زینب بنت بدرالزماں صاحب</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>IF(C33="","",ROW(A31))</f>
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="31  محمّد اذہان بن پرویز احمد صاحب"&gt;31  محمّد اذہان بن پرویز احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="31  زینت خاتون بنت عبد الحسن صاحب"&gt;31  زینت خاتون بنت عبد الحسن صاحب&lt;/option&gt;</v>
       </c>
       <c r="E33" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>31    محمّد اذہان بن پرویز احمد صاحب</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+        <v>31    زینت خاتون بنت عبد الحسن صاحب</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <f>IF(C34="","",ROW(A32))</f>
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D34" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="32  محمّد ارحان بن محمّد اختر صاحب"&gt;32  محمّد ارحان بن محمّد اختر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="32  شیزان رحمت بن رحمت علی صاحب (بستی)"&gt;32  شیزان رحمت بن رحمت علی صاحب (بستی)&lt;/option&gt;</v>
       </c>
       <c r="E34" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>32    محمّد ارحان بن محمّد اختر صاحب</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+        <v>32    شیزان رحمت بن رحمت علی صاحب (بستی)</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35">
         <f>IF(C35="","",ROW(A33))</f>
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D35" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="33  محمّد ارحم بن   قمر الہدی صاحب"&gt;33  محمّد ارحم بن   قمر الہدی صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="33  صفوان بن رحمت علی  صاحب (بستی)"&gt;33  صفوان بن رحمت علی  صاحب (بستی)&lt;/option&gt;</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>33    محمّد ارحم بن   قمر الہدی صاحب</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+        <v>33    صفوان بن رحمت علی  صاحب (بستی)</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
         <f>IF(C36="","",ROW(A34))</f>
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="34  محمّد ارسلان بن محمّد افضل صاحب"&gt;34  محمّد ارسلان بن محمّد افضل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="34  عائشہ بنت  محمّد معشوق صاحب"&gt;34  عائشہ بنت  محمّد معشوق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E36" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>34    محمّد ارسلان بن محمّد افضل صاحب</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+        <v>34    عائشہ بنت  محمّد معشوق صاحب</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37">
         <f>IF(C37="","",ROW(A35))</f>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D37" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="35  محمّد ارکان بن محمّد محفوظ صاحب"&gt;35  محمّد ارکان بن محمّد محفوظ صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="35  عبدالصمد  بن محمّد شفیع صاحب"&gt;35  عبدالصمد  بن محمّد شفیع صاحب&lt;/option&gt;</v>
       </c>
       <c r="E37" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>35    محمّد ارکان بن محمّد محفوظ صاحب</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+        <v>35    عبدالصمد  بن محمّد شفیع صاحب</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <f>IF(C38="","",ROW(A36))</f>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D38" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="36  محمّد الحم بن افروز اختر صاحب"&gt;36  محمّد الحم بن افروز اختر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="36  علیشا بنت دلشاد صاحب رح"&gt;36  علیشا بنت دلشاد صاحب رح&lt;/option&gt;</v>
       </c>
       <c r="E38" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>36    محمّد الحم بن افروز اختر صاحب</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+        <v>36    علیشا بنت دلشاد صاحب رح</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <f>IF(C39="","",ROW(A37))</f>
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D39" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="37  محمّد امان بن الطاف احمد صاحب"&gt;37  محمّد امان بن الطاف احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="37  عیاض احمد بن فرحت حسین صاحب"&gt;37  عیاض احمد بن فرحت حسین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E39" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>37    محمّد امان بن الطاف احمد صاحب</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+        <v>37    عیاض احمد بن فرحت حسین صاحب</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <f>IF(C40="","",ROW(A38))</f>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D40" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="38  محمّد امان بن بدر الزماں صاحب "&gt;38  محمّد امان بن بدر الزماں صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="38  عیاض احمد بن وسیم احمد صاحب"&gt;38  عیاض احمد بن وسیم احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E40" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">38    محمّد امان بن بدر الزماں صاحب </v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+        <v>38    عیاض احمد بن وسیم احمد صاحب</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <f>IF(C41="","",ROW(A39))</f>
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D41" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="39  محمّد امان بن راشد الحق صاحب"&gt;39  محمّد امان بن راشد الحق صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="39  عیان بن غفران اللہ صاحب"&gt;39  عیان بن غفران اللہ صاحب&lt;/option&gt;</v>
       </c>
       <c r="E41" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>39    محمّد امان بن راشد الحق صاحب</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+        <v>39    عیان بن غفران اللہ صاحب</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42">
         <f>IF(C42="","",ROW(A40))</f>
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D42" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="40  محمّد انس بن   محمّد چاند صاحب"&gt;40  محمّد انس بن   محمّد چاند صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="40  فضا بنت قاری صفی اللہ  صاحب"&gt;40  فضا بنت قاری صفی اللہ  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E42" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>40    محمّد انس بن   محمّد چاند صاحب</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+        <v>40    فضا بنت قاری صفی اللہ  صاحب</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43">
         <f>IF(C43="","",ROW(A41))</f>
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D43" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="41  محمّد ایذان بن محمّد عالم صاحب"&gt;41  محمّد ایذان بن محمّد عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="41  فہد صادق بن عبد الصادق صاحب رح"&gt;41  فہد صادق بن عبد الصادق صاحب رح&lt;/option&gt;</v>
       </c>
       <c r="E43" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>41    محمّد ایذان بن محمّد عالم صاحب</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+        <v>41    فہد صادق بن عبد الصادق صاحب رح</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44">
         <f>IF(C44="","",ROW(A42))</f>
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D44" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="42  محمّد آشد  بن غیاث  صاحب"&gt;42  محمّد آشد  بن غیاث  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="42  محمّد  فہد  بن غیاث صاحب"&gt;42  محمّد  فہد  بن غیاث صاحب&lt;/option&gt;</v>
       </c>
       <c r="E44" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>42    محمّد آشد  بن غیاث  صاحب</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+        <v>42    محمّد  فہد  بن غیاث صاحب</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <f>IF(C45="","",ROW(A43))</f>
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D45" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="43  محمّد آفرید بن وسیم احمد صاحب "&gt;43  محمّد آفرید بن وسیم احمد صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="43  محمّد ابان بن محمّد عامر صاحب"&gt;43  محمّد ابان بن محمّد عامر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E45" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">43    محمّد آفرید بن وسیم احمد صاحب </v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43    محمّد ابان بن محمّد عامر صاحب</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <f>IF(C46="","",ROW(A44))</f>
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D46" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="44  محمّد بلال بن انور حسین صاحب"&gt;44  محمّد بلال بن انور حسین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="44  محمّد ابراہیم بن محمّد ارشاد  صاحب"&gt;44  محمّد ابراہیم بن محمّد ارشاد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E46" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>44    محمّد بلال بن انور حسین صاحب</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44    محمّد ابراہیم بن محمّد ارشاد  صاحب</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <f>IF(C47="","",ROW(A45))</f>
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D47" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="45  محمّد تنزیل  بن حسن مطلوب صاحب"&gt;45  محمّد تنزیل  بن حسن مطلوب صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="45  محمّد احتشام بن قاری صفی الله صاحب"&gt;45  محمّد احتشام بن قاری صفی الله صاحب&lt;/option&gt;</v>
       </c>
       <c r="E47" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>45    محمّد تنزیل  بن حسن مطلوب صاحب</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+        <v>45    محمّد احتشام بن قاری صفی الله صاحب</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <f>IF(C48="","",ROW(A46))</f>
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D48" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="46  محمّد تہشیم   بن  ندیم  احمد صاحب"&gt;46  محمّد تہشیم   بن  ندیم  احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="46  محمّد اذلان بن علیم عارف صاحب"&gt;46  محمّد اذلان بن علیم عارف صاحب&lt;/option&gt;</v>
       </c>
       <c r="E48" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>46    محمّد تہشیم   بن  ندیم  احمد صاحب</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+        <v>46    محمّد اذلان بن علیم عارف صاحب</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49">
         <f>IF(C49="","",ROW(A47))</f>
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D49" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="47  محمّد توحیدبن حسن مطلوب صاحب"&gt;47  محمّد توحیدبن حسن مطلوب صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="47  محمّد اذہان بن پرویز احمد صاحب"&gt;47  محمّد اذہان بن پرویز احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E49" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>47    محمّد توحیدبن حسن مطلوب صاحب</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+        <v>47    محمّد اذہان بن پرویز احمد صاحب</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50">
         <f>IF(C50="","",ROW(A48))</f>
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D50" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="48  محمّد حمّاد بن عدیل  احمد  صاحب"&gt;48  محمّد حمّاد بن عدیل  احمد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="48  محمّد ارحان بن محمّد اختر صاحب"&gt;48  محمّد ارحان بن محمّد اختر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E50" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>48    محمّد حمّاد بن عدیل  احمد  صاحب</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+        <v>48    محمّد ارحان بن محمّد اختر صاحب</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51">
         <f>IF(C51="","",ROW(A49))</f>
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
+      <c r="C51" t="s">
+        <v>18</v>
       </c>
       <c r="D51" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="49  محمّد حمزہ   اسرائیل صاحب"&gt;49  محمّد حمزہ   اسرائیل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="49  محمّد ارحم بن   قمر الہدی صاحب"&gt;49  محمّد ارحم بن   قمر الہدی صاحب&lt;/option&gt;</v>
       </c>
       <c r="E51" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>49    محمّد حمزہ   اسرائیل صاحب</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49    محمّد ارحم بن   قمر الہدی صاحب</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <f>IF(C52="","",ROW(A50))</f>
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D52" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="50  محمّد حمزہ  بن غلام رسول صاحب "&gt;50  محمّد حمزہ  بن غلام رسول صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="50  محمّد ارسلان بن محمّد افضل صاحب"&gt;50  محمّد ارسلان بن محمّد افضل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E52" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">50    محمّد حمزہ  بن غلام رسول صاحب </v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+        <v>50    محمّد ارسلان بن محمّد افضل صاحب</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <f>IF(C53="","",ROW(A51))</f>
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D53" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="51  محمّد حمزہ بن مہتاب عالم صاحب"&gt;51  محمّد حمزہ بن مہتاب عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="51  محمّد ارکان بن محمّد محفوظ صاحب"&gt;51  محمّد ارکان بن محمّد محفوظ صاحب&lt;/option&gt;</v>
       </c>
       <c r="E53" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>51    محمّد حمزہ بن مہتاب عالم صاحب</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+        <v>51    محمّد ارکان بن محمّد محفوظ صاحب</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <f>IF(C54="","",ROW(A52))</f>
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D54" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="52  محمّد حمید بن شاداب عالم صاحب"&gt;52  محمّد حمید بن شاداب عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="52  محمّد الحم بن افروز اختر صاحب"&gt;52  محمّد الحم بن افروز اختر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E54" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>52    محمّد حمید بن شاداب عالم صاحب</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+        <v>52    محمّد الحم بن افروز اختر صاحب</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <f>IF(C55="","",ROW(A53))</f>
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D55" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="53  محمّد حنیف بن ملک الافضل صاحب "&gt;53  محمّد حنیف بن ملک الافضل صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="53  محمّد امان بن الطاف احمد صاحب"&gt;53  محمّد امان بن الطاف احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E55" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">53    محمّد حنیف بن ملک الافضل صاحب </v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+        <v>53    محمّد امان بن الطاف احمد صاحب</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56">
         <f>IF(C56="","",ROW(A54))</f>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D56" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="54  محمّد دارین بن محمّد عامر صاحب"&gt;54  محمّد دارین بن محمّد عامر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="54  محمّد امان بن بدر الزماں صاحب "&gt;54  محمّد امان بن بدر الزماں صاحب &lt;/option&gt;</v>
       </c>
       <c r="E56" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>54    محمّد دارین بن محمّد عامر صاحب</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">54    محمّد امان بن بدر الزماں صاحب </v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57">
         <f>IF(C57="","",ROW(A55))</f>
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="55  محمّد دانش بن نصیر احمد صاحب"&gt;55  محمّد دانش بن نصیر احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="55  محمّد امان بن راشد الحق صاحب"&gt;55  محمّد امان بن راشد الحق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E57" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>55    محمّد دانش بن نصیر احمد صاحب</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+        <v>55    محمّد امان بن راشد الحق صاحب</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58">
         <f>IF(C58="","",ROW(A56))</f>
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D58" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="56  محمّد داؤد بن خواجہ فرید الدین  صاحب"&gt;56  محمّد داؤد بن خواجہ فرید الدین  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="56  محمّد انس بن   محمّد چاند صاحب"&gt;56  محمّد انس بن   محمّد چاند صاحب&lt;/option&gt;</v>
       </c>
       <c r="E58" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>56    محمّد داؤد بن خواجہ فرید الدین  صاحب</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+        <v>56    محمّد انس بن   محمّد چاند صاحب</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <f>IF(C59="","",ROW(A57))</f>
         <v>57</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>97</v>
+      <c r="C59" t="s">
+        <v>89</v>
       </c>
       <c r="D59" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="57  محمّد ذہیب بن"&gt;57  محمّد ذہیب بن&lt;/option&gt;</v>
+        <v>&lt;option value="57  محمّد ایذان بن محمّد عالم صاحب"&gt;57  محمّد ایذان بن محمّد عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E59" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>57    محمّد ذہیب بن</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+        <v>57    محمّد ایذان بن محمّد عالم صاحب</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <f>IF(C60="","",ROW(A58))</f>
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D60" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="58  محمّد راشد بن رازق حسین خان صاحب"&gt;58  محمّد راشد بن رازق حسین خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="58  محمّد آشد  بن غیاث  صاحب"&gt;58  محمّد آشد  بن غیاث  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E60" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>58    محمّد راشد بن رازق حسین خان صاحب</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+        <v>58    محمّد آشد  بن غیاث  صاحب</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <f>IF(C61="","",ROW(A59))</f>
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D61" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="59  محمّد ریاض صاحب (جدّہ)"&gt;59  محمّد ریاض صاحب (جدّہ)&lt;/option&gt;</v>
+        <v>&lt;option value="59  محمّد بلال بن انور حسین صاحب"&gt;59  محمّد بلال بن انور حسین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E61" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>59    محمّد ریاض صاحب (جدّہ)</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+        <v>59    محمّد بلال بن انور حسین صاحب</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <f>IF(C62="","",ROW(A60))</f>
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D62" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="60  محمّد ریحان  بن شمیم عالم صاحب"&gt;60  محمّد ریحان  بن شمیم عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="60  محمّد تنزیل  بن حسن مطلوب صاحب"&gt;60  محمّد تنزیل  بن حسن مطلوب صاحب&lt;/option&gt;</v>
       </c>
       <c r="E62" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>60    محمّد ریحان  بن شمیم عالم صاحب</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+        <v>60    محمّد تنزیل  بن حسن مطلوب صاحب</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63">
         <f>IF(C63="","",ROW(A61))</f>
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D63" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="61  محمّد ریحان بن اظہار احمد صاحب"&gt;61  محمّد ریحان بن اظہار احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="61  محمّد تہشیم   بن  ندیم  احمد صاحب"&gt;61  محمّد تہشیم   بن  ندیم  احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E63" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>61    محمّد ریحان بن اظہار احمد صاحب</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+        <v>61    محمّد تہشیم   بن  ندیم  احمد صاحب</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64">
         <f>IF(C64="","",ROW(A62))</f>
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D64" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="62  محمّد زیاں بن محمّد انور صاحب (امریکا)"&gt;62  محمّد زیاں بن محمّد انور صاحب (امریکا)&lt;/option&gt;</v>
+        <v>&lt;option value="62  محمّد توحیدبن حسن مطلوب صاحب"&gt;62  محمّد توحیدبن حسن مطلوب صاحب&lt;/option&gt;</v>
       </c>
       <c r="E64" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>62    محمّد زیاں بن محمّد انور صاحب (امریکا)</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+        <v>62    محمّد توحیدبن حسن مطلوب صاحب</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65">
         <f>IF(C65="","",ROW(A63))</f>
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D65" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="63  محمّد زیان بن رضوان خان صاحب"&gt;63  محمّد زیان بن رضوان خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="63  محمّد حمّاد بن عدیل  احمد  صاحب"&gt;63  محمّد حمّاد بن عدیل  احمد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E65" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>63    محمّد زیان بن رضوان خان صاحب</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+        <v>63    محمّد حمّاد بن عدیل  احمد  صاحب</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <f>IF(C66="","",ROW(A64))</f>
         <v>64</v>
       </c>
-      <c r="C66" t="s">
-        <v>70</v>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D66" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="64  محمّد زید بن  افتخار  احمد  صاحب"&gt;64  محمّد زید بن  افتخار  احمد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="64  محمّد حمزہ   اسرائیل صاحب"&gt;64  محمّد حمزہ   اسرائیل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E66" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>64    محمّد زید بن  افتخار  احمد  صاحب</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+        <v>64    محمّد حمزہ   اسرائیل صاحب</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <f>IF(C67="","",ROW(A65))</f>
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D67" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="65  محمّد زید بن حافظ فیض الرحمن صاحب"&gt;65  محمّد زید بن حافظ فیض الرحمن صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="65  محمّد حمزہ  بن غلام رسول صاحب "&gt;65  محمّد حمزہ  بن غلام رسول صاحب &lt;/option&gt;</v>
       </c>
       <c r="E67" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>65    محمّد زید بن حافظ فیض الرحمن صاحب</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">65    محمّد حمزہ  بن غلام رسول صاحب </v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <f>IF(C68="","",ROW(A66))</f>
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D68" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="66  محمّد زید بن ظہیر الدین صاحب"&gt;66  محمّد زید بن ظہیر الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="66  محمّد حمزہ بن مہتاب عالم صاحب"&gt;66  محمّد حمزہ بن مہتاب عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E68" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>66    محمّد زید بن ظہیر الدین صاحب</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+        <v>66    محمّد حمزہ بن مہتاب عالم صاحب</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <f>IF(C69="","",ROW(A67))</f>
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D69" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="67  محمّد سفیان بن شفقت الله صاحب"&gt;67  محمّد سفیان بن شفقت الله صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="67  محمّد حمید بن شاداب عالم صاحب"&gt;67  محمّد حمید بن شاداب عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E69" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>67    محمّد سفیان بن شفقت الله صاحب</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+        <v>67    محمّد حمید بن شاداب عالم صاحب</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70">
         <f>IF(C70="","",ROW(A68))</f>
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="68  محمّد شادمان  بن محمّد ارشاد صاحب"&gt;68  محمّد شادمان  بن محمّد ارشاد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="68  محمّد حنیف بن ملک الافضل صاحب "&gt;68  محمّد حنیف بن ملک الافضل صاحب &lt;/option&gt;</v>
       </c>
       <c r="E70" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>68    محمّد شادمان  بن محمّد ارشاد صاحب</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">68    محمّد حنیف بن ملک الافضل صاحب </v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71">
         <f>IF(C71="","",ROW(A69))</f>
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D71" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="69  محمّد شمس بن پرویز لاری صاحب"&gt;69  محمّد شمس بن پرویز لاری صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="69  محمّد دارین بن محمّد عامر صاحب"&gt;69  محمّد دارین بن محمّد عامر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E71" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>69    محمّد شمس بن پرویز لاری صاحب</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+        <v>69    محمّد دارین بن محمّد عامر صاحب</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72">
         <f>IF(C72="","",ROW(A70))</f>
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D72" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="70  محمّد صالق بن واثق باللہ صاحب"&gt;70  محمّد صالق بن واثق باللہ صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="70  محمّد داؤد بن خواجہ فرید الدین  صاحب"&gt;70  محمّد داؤد بن خواجہ فرید الدین  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E72" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>70    محمّد صالق بن واثق باللہ صاحب</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+        <v>70    محمّد داؤد بن خواجہ فرید الدین  صاحب</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <f>IF(C73="","",ROW(A71))</f>
         <v>71</v>
       </c>
-      <c r="C73" t="s">
-        <v>91</v>
+      <c r="C73" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="71  محمّد صائم بن محمّد فیصل صاحب"&gt;71  محمّد صائم بن محمّد فیصل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="71  محمّد ذہیب بن"&gt;71  محمّد ذہیب بن&lt;/option&gt;</v>
       </c>
       <c r="E73" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>71    محمّد صائم بن محمّد فیصل صاحب</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+        <v>71    محمّد ذہیب بن</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <f>IF(C74="","",ROW(A72))</f>
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D74" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="72  محمّد صفوان بن محمّد قیصر عالم صاحب"&gt;72  محمّد صفوان بن محمّد قیصر عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="72  محمّد راشد بن رازق حسین خان صاحب"&gt;72  محمّد راشد بن رازق حسین خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E74" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>72    محمّد صفوان بن محمّد قیصر عالم صاحب</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+        <v>72    محمّد راشد بن رازق حسین خان صاحب</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <f>IF(C75="","",ROW(A73))</f>
         <v>73</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>96</v>
+      <c r="C75" t="s">
+        <v>99</v>
       </c>
       <c r="D75" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="73  محمّد طالب بن"&gt;73  محمّد طالب بن&lt;/option&gt;</v>
+        <v>&lt;option value="73  محمّد ریاض صاحب (جدّہ)"&gt;73  محمّد ریاض صاحب (جدّہ)&lt;/option&gt;</v>
       </c>
       <c r="E75" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>73    محمّد طالب بن</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+        <v>73    محمّد ریاض صاحب (جدّہ)</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <f>IF(C76="","",ROW(A74))</f>
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D76" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="74  محمّد طیّب  بن مہتاب عالم صاحب"&gt;74  محمّد طیّب  بن مہتاب عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="74  محمّد ریحان  بن شمیم عالم صاحب"&gt;74  محمّد ریحان  بن شمیم عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E76" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>74    محمّد طیّب  بن مہتاب عالم صاحب</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+        <v>74    محمّد ریحان  بن شمیم عالم صاحب</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77">
         <f>IF(C77="","",ROW(A75))</f>
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D77" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="75  محمّد عابدبن حافظ عمران صاحب"&gt;75  محمّد عابدبن حافظ عمران صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="75  محمّد زیاں بن محمّد انور صاحب (امریکا)"&gt;75  محمّد زیاں بن محمّد انور صاحب (امریکا)&lt;/option&gt;</v>
       </c>
       <c r="E77" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>75    محمّد عابدبن حافظ عمران صاحب</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+        <v>75    محمّد زیاں بن محمّد انور صاحب (امریکا)</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78">
         <f>IF(C78="","",ROW(A76))</f>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="D78" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="76  محمّد عارش  بن علیم الدین صاحب"&gt;76  محمّد عارش  بن علیم الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="76  محمّد زیان بن رضوان خان صاحب"&gt;76  محمّد زیان بن رضوان خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E78" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>76    محمّد عارش  بن علیم الدین صاحب</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+        <v>76    محمّد زیان بن رضوان خان صاحب</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79">
         <f>IF(C79="","",ROW(A77))</f>
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="77  محمّد عاکف بن قمرالہدی صاحب"&gt;77  محمّد عاکف بن قمرالہدی صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="77  محمّد سفیان بن شفقت الله صاحب"&gt;77  محمّد سفیان بن شفقت الله صاحب&lt;/option&gt;</v>
       </c>
       <c r="E79" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>77    محمّد عاکف بن قمرالہدی صاحب</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+        <v>77    محمّد سفیان بن شفقت الله صاحب</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80">
         <f>IF(C80="","",ROW(A78))</f>
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D80" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="78  محمّد عاہل بن محمّد دانش  صاحب"&gt;78  محمّد عاہل بن محمّد دانش  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="78  محمّد شادمان  بن محمّد ارشاد صاحب"&gt;78  محمّد شادمان  بن محمّد ارشاد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E80" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>78    محمّد عاہل بن محمّد دانش  صاحب</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+        <v>78    محمّد شادمان  بن محمّد ارشاد صاحب</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81">
         <f>IF(C81="","",ROW(A79))</f>
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D81" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="79  محمّد عدنان بن محمّد افضل صاحب"&gt;79  محمّد عدنان بن محمّد افضل صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="79  محمّد شمس بن پرویز لاری صاحب"&gt;79  محمّد شمس بن پرویز لاری صاحب&lt;/option&gt;</v>
       </c>
       <c r="E81" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>79    محمّد عدنان بن محمّد افضل صاحب</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+        <v>79    محمّد شمس بن پرویز لاری صاحب</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82">
         <f>IF(C82="","",ROW(A80))</f>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D82" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="80  محمّد عزیر بن ممتاز احمد صاحب"&gt;80  محمّد عزیر بن ممتاز احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="80  محمّد صالق بن واثق باللہ صاحب"&gt;80  محمّد صالق بن واثق باللہ صاحب&lt;/option&gt;</v>
       </c>
       <c r="E82" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>80    محمّد عزیر بن ممتاز احمد صاحب</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+        <v>80    محمّد صالق بن واثق باللہ صاحب</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83">
         <f>IF(C83="","",ROW(A81))</f>
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D83" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="81  محمّد علی بن نوید احمد صاحب"&gt;81  محمّد علی بن نوید احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="81  محمّد صائم بن محمّد فیصل صاحب"&gt;81  محمّد صائم بن محمّد فیصل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E83" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>81    محمّد علی بن نوید احمد صاحب</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+        <v>81    محمّد صائم بن محمّد فیصل صاحب</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84">
         <f>IF(C84="","",ROW(A82))</f>
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D84" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="82  محمّد عمر بن عبد الرزاق صاحب"&gt;82  محمّد عمر بن عبد الرزاق صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="82  محمّد صفوان بن محمّد قیصر عالم صاحب"&gt;82  محمّد صفوان بن محمّد قیصر عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E84" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>82    محمّد عمر بن عبد الرزاق صاحب</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+        <v>82    محمّد صفوان بن محمّد قیصر عالم صاحب</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85">
         <f>IF(C85="","",ROW(A83))</f>
         <v>83</v>
       </c>
-      <c r="C85" t="s">
-        <v>34</v>
+      <c r="C85" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D85" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="83  محمّد عمر بن گلریز احمد خان صاحب"&gt;83  محمّد عمر بن گلریز احمد خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="83  محمّد طالب بن"&gt;83  محمّد طالب بن&lt;/option&gt;</v>
       </c>
       <c r="E85" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>83    محمّد عمر بن گلریز احمد خان صاحب</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+        <v>83    محمّد طالب بن</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86">
         <f>IF(C86="","",ROW(A84))</f>
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D86" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="84  محمّد عمر بن محمّد اجمل صاحب  (مئو)"&gt;84  محمّد عمر بن محمّد اجمل صاحب  (مئو)&lt;/option&gt;</v>
+        <v>&lt;option value="84  محمّد عارش  بن علیم الدین صاحب"&gt;84  محمّد عارش  بن علیم الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E86" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>84    محمّد عمر بن محمّد اجمل صاحب  (مئو)</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+        <v>84    محمّد عارش  بن علیم الدین صاحب</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87">
         <f>IF(C87="","",ROW(A85))</f>
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D87" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="85  محمّد عمیر بن نذیر الدین صاحب"&gt;85  محمّد عمیر بن نذیر الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="85  محمّد عاکف بن قمرالہدی صاحب"&gt;85  محمّد عاکف بن قمرالہدی صاحب&lt;/option&gt;</v>
       </c>
       <c r="E87" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>85    محمّد عمیر بن نذیر الدین صاحب</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+        <v>85    محمّد عاکف بن قمرالہدی صاحب</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88">
         <f>IF(C88="","",ROW(A86))</f>
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D88" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="86  محمّد عیاں بن شفیق صاحب رحمه اللہ"&gt;86  محمّد عیاں بن شفیق صاحب رحمه اللہ&lt;/option&gt;</v>
+        <v>&lt;option value="86  محمّد عاہل بن محمّد دانش  صاحب"&gt;86  محمّد عاہل بن محمّد دانش  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E88" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>86    محمّد عیاں بن شفیق صاحب رحمه اللہ</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+        <v>86    محمّد عاہل بن محمّد دانش  صاحب</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89">
         <f>IF(C89="","",ROW(A87))</f>
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D89" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="87  محمّد عیان بن ظہیر الدین صاحب"&gt;87  محمّد عیان بن ظہیر الدین صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="87  محمّد عدنان بن محمّد افضل صاحب"&gt;87  محمّد عدنان بن محمّد افضل صاحب&lt;/option&gt;</v>
       </c>
       <c r="E89" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>87    محمّد عیان بن ظہیر الدین صاحب</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+        <v>87    محمّد عدنان بن محمّد افضل صاحب</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90">
         <f>IF(C90="","",ROW(A88))</f>
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D90" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="88  محمّد فرحان بن شمیم عالم صاحب"&gt;88  محمّد فرحان بن شمیم عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="88  محمّد عزیر بن ممتاز احمد صاحب"&gt;88  محمّد عزیر بن ممتاز احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E90" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>88    محمّد فرحان بن شمیم عالم صاحب</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+        <v>88    محمّد عزیر بن ممتاز احمد صاحب</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91">
         <f>IF(C91="","",ROW(A89))</f>
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D91" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="89  محمّد فردین بن محمّد شاہد صاحب"&gt;89  محمّد فردین بن محمّد شاہد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="89  محمّد عمر بن عبد الرزاق صاحب"&gt;89  محمّد عمر بن عبد الرزاق صاحب&lt;/option&gt;</v>
       </c>
       <c r="E91" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>89    محمّد فردین بن محمّد شاہد صاحب</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+        <v>89    محمّد عمر بن عبد الرزاق صاحب</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92">
         <f>IF(C92="","",ROW(A90))</f>
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D92" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="90  محمّد کیفی بن محمّد نواز شیروانی صاحب"&gt;90  محمّد کیفی بن محمّد نواز شیروانی صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="90  محمّد عمر بن گلریز احمد خان صاحب"&gt;90  محمّد عمر بن گلریز احمد خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E92" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>90    محمّد کیفی بن محمّد نواز شیروانی صاحب</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+        <v>90    محمّد عمر بن گلریز احمد خان صاحب</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93">
         <f>IF(C93="","",ROW(A91))</f>
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D93" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="91  محمّد محتشم بن محمّد عامر صاحب"&gt;91  محمّد محتشم بن محمّد عامر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="91  محمّد عمر بن محمّد اجمل صاحب  (مئو)"&gt;91  محمّد عمر بن محمّد اجمل صاحب  (مئو)&lt;/option&gt;</v>
       </c>
       <c r="E93" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>91    محمّد محتشم بن محمّد عامر صاحب</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+        <v>91    محمّد عمر بن محمّد اجمل صاحب  (مئو)</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94">
         <f>IF(C94="","",ROW(A92))</f>
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D94" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="92  محمّد مدّثر بن شکیل احمد  صاحب"&gt;92  محمّد مدّثر بن شکیل احمد  صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="92  محمّد عیان بن ظہیر الدین صاحب"&gt;92  محمّد عیان بن ظہیر الدین صاحب&lt;/option&gt;</v>
       </c>
       <c r="E94" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>92    محمّد مدّثر بن شکیل احمد  صاحب</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+        <v>92    محمّد عیان بن ظہیر الدین صاحب</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95">
         <f>IF(C95="","",ROW(A93))</f>
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D95" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="93  محمّد مزمل بن شکیل احمد صاحب"&gt;93  محمّد مزمل بن شکیل احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="93  محمّد فردین بن محمّد شاہد صاحب"&gt;93  محمّد فردین بن محمّد شاہد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E95" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>93    محمّد مزمل بن شکیل احمد صاحب</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+        <v>93    محمّد فردین بن محمّد شاہد صاحب</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96">
         <f>IF(C96="","",ROW(A94))</f>
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D96" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="94  محمّد معروف بن  محمّد معشوق صاحب"&gt;94  محمّد معروف بن  محمّد معشوق صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="94  محمّد کیفی بن محمّد نواز شیروانی صاحب"&gt;94  محمّد کیفی بن محمّد نواز شیروانی صاحب&lt;/option&gt;</v>
       </c>
       <c r="E96" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>94    محمّد معروف بن  محمّد معشوق صاحب</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+        <v>94    محمّد کیفی بن محمّد نواز شیروانی صاحب</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B97">
         <f>IF(C97="","",ROW(A95))</f>
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D97" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="95  محمّد ہادی بن ملک العزیز صاحب"&gt;95  محمّد ہادی بن ملک العزیز صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="95  محمّد محتشم بن محمّد عامر صاحب"&gt;95  محمّد محتشم بن محمّد عامر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E97" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>95    محمّد ہادی بن ملک العزیز صاحب</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+        <v>95    محمّد محتشم بن محمّد عامر صاحب</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B98">
         <f>IF(C98="","",ROW(A96))</f>
         <v>96</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>2</v>
+      <c r="C98" t="s">
+        <v>59</v>
       </c>
       <c r="D98" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="96  محمّد ھود "&gt;96  محمّد ھود &lt;/option&gt;</v>
+        <v>&lt;option value="96  محمّد مدّثر بن شکیل احمد  صاحب"&gt;96  محمّد مدّثر بن شکیل احمد  صاحب&lt;/option&gt;</v>
       </c>
       <c r="E98" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">96    محمّد ھود </v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+        <v>96    محمّد مدّثر بن شکیل احمد  صاحب</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B99">
         <f>IF(C99="","",ROW(A97))</f>
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D99" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="97  محمّد یوسف بن ذرار صاحب"&gt;97  محمّد یوسف بن ذرار صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="97  محمّد مزمل بن شکیل احمد صاحب"&gt;97  محمّد مزمل بن شکیل احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E99" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>97    محمّد یوسف بن ذرار صاحب</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+        <v>97    محمّد مزمل بن شکیل احمد صاحب</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B100">
         <f>IF(C100="","",ROW(A98))</f>
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D100" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="98  محمّد یوسف بن محمّد بلال صاحب "&gt;98  محمّد یوسف بن محمّد بلال صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="98  محمّد ہادی بن ملک العزیز صاحب"&gt;98  محمّد ہادی بن ملک العزیز صاحب&lt;/option&gt;</v>
       </c>
       <c r="E100" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">98    محمّد یوسف بن محمّد بلال صاحب </v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98    محمّد ہادی بن ملک العزیز صاحب</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B101">
         <f>IF(C101="","",ROW(A99))</f>
         <v>99</v>
       </c>
-      <c r="C101" t="s">
-        <v>95</v>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D101" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="99  محمّداحتشام بن نعیم خان صاحب"&gt;99  محمّداحتشام بن نعیم خان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="99  محمّد ھود "&gt;99  محمّد ھود &lt;/option&gt;</v>
       </c>
       <c r="E101" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>99    محمّداحتشام بن نعیم خان صاحب</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">99    محمّد ھود </v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102">
         <f>IF(C102="","",ROW(A100))</f>
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D102" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="100  محمّدشدیب  بن محمّد عالم صاحب"&gt;100  محمّدشدیب  بن محمّد عالم صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="100  محمّد یوسف بن محمّد بلال صاحب "&gt;100  محمّد یوسف بن محمّد بلال صاحب &lt;/option&gt;</v>
       </c>
       <c r="E102" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>100    محمّدشدیب  بن محمّد عالم صاحب</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">100    محمّد یوسف بن محمّد بلال صاحب </v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B103">
         <f>IF(C103="","",ROW(A101))</f>
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D103" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="101  محمّدعرش  بن عبد الرحیم صاحب "&gt;101  محمّدعرش  بن عبد الرحیم صاحب &lt;/option&gt;</v>
+        <v>&lt;option value="101  محمّداحتشام بن نعیم خان صاحب"&gt;101  محمّداحتشام بن نعیم خان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E103" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v xml:space="preserve">101    محمّدعرش  بن عبد الرحیم صاحب </v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+        <v>101    محمّداحتشام بن نعیم خان صاحب</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>IF(C104="","",ROW(A102))</f>
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D104" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="102  محمد اسماعیل بن مصطفی احمد صاحب"&gt;102  محمد اسماعیل بن مصطفی احمد صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="102  محمّدشدیب  بن محمّد عالم صاحب"&gt;102  محمّدشدیب  بن محمّد عالم صاحب&lt;/option&gt;</v>
       </c>
       <c r="E104" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>102    محمد اسماعیل بن مصطفی احمد صاحب</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+        <v>102    محمّدشدیب  بن محمّد عالم صاحب</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B105">
         <f>IF(C105="","",ROW(A103))</f>
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D105" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="103  محمد افروزبن محمد عرفان صاحب"&gt;103  محمد افروزبن محمد عرفان صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="103  محمّدعرش  بن عبد الرحیم صاحب "&gt;103  محمّدعرش  بن عبد الرحیم صاحب &lt;/option&gt;</v>
       </c>
       <c r="E105" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>103    محمد افروزبن محمد عرفان صاحب</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">103    محمّدعرش  بن عبد الرحیم صاحب </v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B106">
         <f>IF(C106="","",ROW(A104))</f>
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D106" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="104  محمد ریان بن نسیم اختر صاحب"&gt;104  محمد ریان بن نسیم اختر صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="104  محمد اسماعیل بن مصطفی احمد صاحب"&gt;104  محمد اسماعیل بن مصطفی احمد صاحب&lt;/option&gt;</v>
       </c>
       <c r="E106" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>104    محمد ریان بن نسیم اختر صاحب</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+        <v>104    محمد اسماعیل بن مصطفی احمد صاحب</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107">
         <f>IF(C107="","",ROW(A105))</f>
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D107" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="105  معاذ حبیب بن حبیب الله صاحب"&gt;105  معاذ حبیب بن حبیب الله صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="105  محمد افروزبن محمد عرفان صاحب"&gt;105  محمد افروزبن محمد عرفان صاحب&lt;/option&gt;</v>
       </c>
       <c r="E107" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>105    معاذ حبیب بن حبیب الله صاحب</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+        <v>105    محمد افروزبن محمد عرفان صاحب</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B108">
         <f>IF(C108="","",ROW(A106))</f>
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="D108" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="106  معاذ رحمن بن معین الرحمن صاحب"&gt;106  معاذ رحمن بن معین الرحمن صاحب&lt;/option&gt;</v>
+        <v>&lt;option value="106  محمد ریان بن نسیم اختر صاحب"&gt;106  محمد ریان بن نسیم اختر صاحب&lt;/option&gt;</v>
       </c>
       <c r="E108" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>106    معاذ رحمن بن معین الرحمن صاحب</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+        <v>106    محمد ریان بن نسیم اختر صاحب</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B109">
         <f>IF(C109="","",ROW(A107))</f>
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D109" t="str">
         <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="107  نماز والے میں یہ نام بڑھانا ہے"&gt;107  نماز والے میں یہ نام بڑھانا ہے&lt;/option&gt;</v>
+        <v>&lt;option value="107  معاذ رحمن بن معین الرحمن صاحب"&gt;107  معاذ رحمن بن معین الرحمن صاحب&lt;/option&gt;</v>
       </c>
       <c r="E109" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>107    نماز والے میں یہ نام بڑھانا ہے</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+        <v>107    معاذ رحمن بن معین الرحمن صاحب</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B110">
         <f>IF(C110="","",ROW(A108))</f>
         <v>108</v>
@@ -2652,22 +2984,31 @@
         <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
         <v>108    وصی احمد بن رئیس احمد صاحب</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
       <c r="B111">
         <f>IF(C111="","",ROW(A109))</f>
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" t="str">
-        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
-        <v>&lt;option value="109  یٰسین کاظمی بن قطب الدین  کاظمی صاحب"&gt;109  یٰسین کاظمی بن قطب الدین  کاظمی صاحب&lt;/option&gt;</v>
-      </c>
-      <c r="E111" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
-        <v>109    یٰسین کاظمی بن قطب الدین  کاظمی صاحب</v>
+        <v>117</v>
+      </c>
+      <c r="D111" s="3" t="str">
+        <f>_xlfn.CONCAT("&lt;option value=""",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"""&gt;",Table1[[#This Row],[roll-no]],"  ",Table1[[#This Row],[name]],"&lt;/option&gt;")</f>
+        <v>&lt;option value="109  محمّد زکریا (RPF)"&gt;109  محمّد زکریا (RPF)&lt;/option&gt;</v>
+      </c>
+      <c r="E111" s="3" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[roll-no]],"    ",Table1[[#This Row],[name]])</f>
+        <v>109    محمّد زکریا (RPF)</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
